--- a/500all/speech_level/speeches_CHRG-114hhrg94100.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,24 +52,15 @@
     <t>400379</t>
   </si>
   <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. I think it was really two topics for this morning's hearing. One is the basic details of the AUMF with regards to Syria and Iraq and ISIL, and it is a very, very difficult thing to do because Congress wants to strike the balance.    We do not want to give the President a blank check and take away any of our authority. On the other hand, we don't want to restrict the executive branch in a way that hampers his ability to carry out the mission. That, from a language standpoint, can be virtually impossible.    And I think the chairman mentioned some of the areas of tension there--the timeline. I think the timeline is fine, because, as the chairman mentioned, Congress can come back and reauthorize. It sort of makes sure that we stay as part of the process, that we don't let our constitutional authority slip.    The tougher questions are, you know, how do we define military engagement without simply giving the President the right to do whatever whenever. And I will get more into this in the strategy session, but I, for one, think that it would be a mistake strategically to excessively rely on U.S. military force to try and solve this problem.    So I am looking for ways to limit that, to make sure that we don't have an executive that thinks that the military is the solution to this problem, because we should all keep in mind, whatever President Obama's personal position on this is, this AUMF would carry over to another President, which we can't be sure of. So I think those limitations are important, but difficult to articulate, which brings me to the real issue here today, which I think is the broader strategy.    What is the broader strategy? I think it can be fairly simply defined in the sense that we need to get to the point where the Muslim world rejects this type of violent extremism.    And I think one of the things that makes the strategy so difficult is it is a moving target. Back in, you know, 9/11 it was all about Al Qaeda and Al Qaeda senior leadership in Afghanistan, but the ideology is so much broader than that, as everybody here knows. It crops up in all manner of different places, from al-Shabaab to Boko Haram to Ansar al-Sharia.    It is an ideology that is becoming far too deeply rooted in that part of the world. How do we stop it?    Well, the short answer is we don't stop it, because the most dependable part of the message that Al Qaeda has is to basically say that they are defending the Muslim world against Western aggression. The last thing in the world we want is either, you know, a whole bunch of U.S. troops to show up to try to fix the problem, or just as bad, you know, a whole bunch of U.S. policymakers going over there and telling Muslim countries and Muslim governments how they should conduct themselves. They are not going to be responsive to that.    This is a problem that has to be solved internally by these countries. And the real strategic challenge for us here is, how can we help without making the problem worse?    It is a very delicate balance, and I would be very interested in hearing from the three of you on how we can engage in that, because this is an ideological struggle. This isn't about defeating AQAP [Al Qaeda in the Arabian Peninsula] or defeating Al Qaeda senior leadership, or even primarily about defeating ISIL. It is about stopping this just horrific ideology that has spread to too many parts of the Muslim world.    How do we stop it? How do we get that to be turned around? Because the truth is the overwhelming majority of the Muslim world rejects this ideology and rejects this strategy.    And yet, it marches on. How do we work with that to change that?    And then the final key piece of this is--that makes it very difficult to develop a strategy, is we keep tripping over another aspect of conflict in that world, and that is the Shia-Sunni divide.    You know, we may well be in there fighting ISIL, but if ISIL is fighting Shia, as they were in Iraq, and the main reason they were so successful in Iraq is because the Sunni Iraqis looked at Baghdad and said, ``That is not my government. That is a government that is sectarian, that is protecting Shia, that is doing nothing for us.'' So they basically sided with ISIL not so much because they loved ISIL's ideology, but because they found it preferable to Shia rule.    If somehow, some way, Saudi Arabia and Iran could find a way to peacefully coexist tomorrow, a huge chunk of this problem would go away. Now, that is obviously easier said than done, but it is part of the equation is figuring out this--the Shia-Sunni split.    So I think part of the reason people are confounded sometimes on the strategy level is because this is a moving target with lots of complicated pieces. It defies a two-sentence strategy.    And in fact, I don't think we would be well served by coming up with that two-sentence strategy. It is a dynamic problem. We have to be flexible in terms of how we respond to it.    But one piece of it is, with the U.S. engaged militarily against ISIL, as I think it should be, Congress should play its role. We should authorize that use of military force within whatever parameters we as a body decide.    With that, I yield back, and I look forward to the testimony and the questions.    The Chairman. Thank the gentleman.    I ask unanimous consent that a letter that Mr. Smith and I received from retired General James Mattis, former CENTCOM [Central Command] commander, on the AUMF be made part of the record.    [The information referred to can be found in the Appendix on page 99.]    The Chairman. Without objection, so ordered.    And without objection, each of your written statements will be made part of our record, as well.    Let me welcome our witnesses. We are very fortunate today to have retired General Jack Keane, former Vice Chief of staff for the U.S. Army; Robert M. Chesney, Associate Dean for academic affairs and Charles I. Francis professor of law at the University of Texas School of Law, an outstanding institution, I would add; Benjamin Wittes, senior fellow of government studies at Brookings Institution.    And, as many of you all know, Mr. Chesney and Mr. Wittes are both associated also with the Lawfare Blog, which is widely read on these constitutional national security issues.    So thank you all for being here.    General Keane, the floor is yours.    General Keane. Chairman Thornberry, Ranking Minority Smith, members of the committee, thank you for inviting me to testify today on the President's request for authorization of the use of military force. I am honored to be here again and to share the panel with my distinguished colleagues.    I have been testifying here for 15 years before this committee, and I just want to tell you once again how much I appreciate the support that you provide to our Armed Forces through all these years and what you are doing currently. I have always appreciated your serious and thoughtful approach to the Nation's business regardless of who has been the majority in this committee.    Please reference the map that I provided at the end of my testimony when I discuss the enemy and its geography. It was prepared by the Institute for the Study of War where I am the chairman. This was a part of a recent intelligence summary and is useful to understand how ISIS looks at the world.    My remarks will be brief, highlighting the essential observations only, permitting the focus to be your questions.    In principle I agree with a President who desires to use military force beyond a short-term contingency, requests an AUMF from the Congress. The current AUMFs, 2001 and 2002, which are obviously still in use, are, in their design, good documents in that it is clear why military force is being authorized and provides latitude for the President to determine how to use that force.    Indeed, an argument can be made that the President's current AUMF request is unnecessary in that the previous AUMF provides sufficient authorization for the use of force against ISIS. Nonetheless, I do believe it is better public policy for a new AUMF based on the reality that ISIS is a different threat in terms of its scale, mode of operation, location, and near-term intent.    As to the President's current AUMF request, I would like to make a few observations.    The strategy: Strategy is how the military force is used. This is the President's lane, along with his senior military commanders.    As much as I and some Members of Congress are critical of the administration for not having a comprehensive strategy to defeat radical Islam nor an adequate strategy to defeat ISIS, the AUMF is not the appropriate document for that expression. A President needs maximum flexibility to adapt to the enemy and the battlefield environment, which at times may demand a change in strategy.    The enemy: The enemy is ISIS, and the proposed AUMF describes it as ``ISIS and associates.''    ISIS has claimed contractual agreements and a written plan approved by ISIS leader Abu Bakr al-Baghdadi to form satellites in Libya, Egyptian Sinai, Afghanistan, and also Algeria, Saudi Arabia, and Yemen. Some of these affiliations are likely aspirational, to be sure, but ISIS is exporting military capability to make affiliates in Sinai and Libya stronger. All that said, defeating ISIS does not mean that U.S. forces are needed to defeat ISIS satellites.    The geography: Core ISIS is principally located in Iraq and Syria, but it covets territory in a broader region, including Lebanon, Saudi Arabia, Jordan, Israel, and lands that are part of historic caliphates, like the Caucasus. As such, there should be no geographical limitation in the AUMF.    The time constraint: It makes no sense to me to tell our allies and the enemy that we are uncertain of this commitment of force by our unwillingness to extend it beyond 3 years. Congress has the authority to provide continuous assessments through its oversight committees, which is far more appropriate than a 3-year sunset.    The ground force constraint: ISIS cannot be defeated in Iraq and Syria without a decisive ground force victory. There is no ground force in Syria, and no one knows if the Iraq ground force can defeat ISIS.    Why put limits on the use of a ground force when it is widely recognized as the only means to defeat ISIS? Indeed, it may be necessary for a coalition ground force, with the United States likely in the lead, to ultimately defeat ISIS. The ground force constraint should be removed from the AUMF if the true goal is to defeat ISIS.    In conclusion, the proposed AUMF is not an acceptable document. The time and ground force constraint must be removed. This President as well as our next President deserves latitude in the use of military force.    Additionally, how to use the military force, or strategy, is not an appropriate topic for this document, as I previously stated. But it is essential for the Congress to provide oversight and, in so doing, understand the feasibility of the strategy actually working.    I believe it is a matter of conscience to only support an AUMF if there is confidence that the strategy our troops execute will indeed succeed in defeating ISIS.    Thank you, and I look forward to your questions.    [The prepared statement of General Keane can be found in the Appendix on page 55.]    The Chairman. Thank you.    Professor Chesney.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Chesney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chesney. Chairman Thornberry, Ranking Member Smith, and members of the committee, thank you very much for the opportunity to be here today. And I associate myself with General Keane's remarks about the tremendous history of this committee and the way it conducts its business.    I would like to make six points this morning.    First, the draft AUMF lacks a stated purpose in its operative sections. This is in contrast, for example, to the 2001 AUMF, and it is potentially significant.    To be sure, the question of purpose is for policymakers to decide ultimately, not lawyers. But the lawyers, in drafting an AUMF, need to know what the purpose is in order to make sure their work product is suited to accomplishing the mission.    And the public needs to know the purpose, as well. And so, as you improve upon the draft, I hope you will insist upon a clear statement of purpose in it.    Second, the draft's attempt to forbid ``enduring offensive ground combat operations'' is a grossly indeterminate phrase on its face and it should be dropped. Notwithstanding examples given by the White House in its transmittal letter accompanying the draft, the language inevitably will cast a shadow of uncertainty over commanders' operational decisions.    The statement by Secretary Kerry this past Tuesday explaining a bit about what it means in his understanding, referring to overnight embedding being okay but weeks upon weeks of some form of ground presence not being okay, I think underscores rather than assuages this concern. Simply put, commanders should not be left to guess where the boundaries lie.    Third, at no point in American history has Congress ever simultaneously authorized the use of force to destroy an enemy militarily while at the same time purporting to forbid the Commander in Chief from using ground forces towards that end.    In fairness, there have been several authorizations in our history that have been narrow in various ways. But in all such cases, the objective was much narrower than the military destruction of the enemy. Instead, these were cases in which the objective involved important but limited things, such as ending piracy against our shipping or participation in a peacekeeping operation.    Of course, if the actual objective with respect to ISIL is not its military destruction, but instead something relatively more narrow yet still important, then the analogy to past narrow authorizations may work much better. But this simply underscores my earlier point about the need for clarity regarding the purpose of the AUMF and our mission.    All that said, I can't say that Congress would lack the authority to enact such a limitation if it truly wishes to do so. I am simply pointing out that it would be unprecedented in a particular way, and it is certainly closer to the constitutional border line than things we have seen in the past.    Fourth, I want to share my thoughts on what we usually call sunsets, although I am beginning to think that we should get away from the sunset language because of the connotation it has for many people that it suggests that it is predetermined that there won't actually be a renewal. Perhaps it is better to talk about them as renewal or forcing function provisions.    The idea, of course, is to create an occasion after a certain period of time when the authorization, if appropriate, will receive the fresh imprimatur of a Congress and a President acting on the most recent conditions. And in this respect I would just point out where we are with the 2001 AUMF, which, of course, is still a critical instrument; it supports our anti-Al Qaeda operations around the world, from Yemen, to Somalia, Pakistan, Afghanistan, and Iraq, as well.    It has been 13 years-plus since it was enacted, and the passage of time has led many to criticize it on the grounds that it has somehow become stale, that it has become attenuated as Al Qaeda has evolved. And it is a shame, I think, that we haven't had a past occasion where it has been clearly refreshed by a more recent Congress in order to avoid these kinds of problems, which create friction in the reliance upon the AUMF.    Now, it is true that it did partially get refreshed in the National Defense Authorization Act for Fiscal Year 2012, but that refreshment, unfortunately, was limited to reference to the detention authority and--rather than being a full refreshment. But the point is, the experience with the 2001 AUMF illustrates how there is something to be said in favor of being able to continue to operate under an AUMF if you ensure that Congress will, in fact, come back to it after a certain number of years.    I recognize, however, that you cannot create a sunset or renewal provision that signals to the enemy that we are starting off with one foot already out the door. And so, in thinking about how you strike the balance here, my conclusion is that the better way to go is not a 3-year but a 5-year sunset, which also has the virtue of not landing this particular renewal provision on the doorstep of a newly elected President who may still be getting fully acclimated into the office and getting personnel into place.    My next point is about the silence of the draft AUMF on matters of detention, which is rather striking, if you ask me. Another lesson of the past 13 years is that the silence of an AUMF on detention is itself a cause for great legal friction if and when the United States may decide that in addition to using lethal force against ISIL targets, heaven forbid we actually detain some in military custody for the duration of our conflict.    If and when we come to that point, we will regret, I think, not having said something in the AUMF clarifying detention authority. So at a minimum, I hope Congress will consider that issue.    Last, there is the question of whether all this is moot because the administration, though asking for this ISIL-specific AUMF, it does continue to assert that it has the authority to do what it is doing already under color of the 2001 AUMF, and possibly as well under Article 2 of the Constitution. I don't think it is entirely moot.    As a municial matter, the 2001 AUMF argument and the constitutional argument that have been the backdrop up to this point, up to this very moment, are not without their detractors. They are far from obviously correct arguments, and that, in itself, creates a lot of legal friction. In so far as we are putting our Armed Forces into harm's way, they deserve a clear legal endorsement for what they are doing from this body.    As to the particular constraints in the draft AUMF being moot, again, at one level, yes, as a lawyer I can explain to someone if they have the time and patience to listen to me as to why the constraints in the new AUMF, since they aren't present in the old one, don't really matter. But I think that, while true as a legal matter, it is different as a political and rhetorical matter, and the existence of these constraints in the new AUMF will cast a shadow back over the old one and create more legal friction. So for that reason alone I think this proposal really does have to be taken quite seriously.    So let me stop there. I thank you for your time and I look forward to your questions.    [The prepared statement of Mr. Chesney can be found in the Appendix on page 66.]    The Chairman. Thank you.    Mr. Wittes.</t>
   </si>
   <si>
-    <t>Wittes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wittes. Thank you, Chairman Thornberry, Ranking Member Smith, and members of the committee, for inviting me to present my views on the President's proposed authorization for the use of military force against the Islamic State.    I want to advance, I am more modest than Bobby on this, I want to advance only two basic arguments today, and the first is that the administration's draft ISIL AUMF, while it is a significantly flawed document, is flawed in ways that are somewhat different from many of the criticisms being advanced against it. So I want to start by separating what, from my vantage point anyway, is the wheat from the chaff, and sort of dispensing with a number of the criticisms of the draft that are, to my judgment at least, meritless or having significantly less merit than their presence in the conversation.    So, many critics have worried that the draft AUMF would limit the President and his successor in prosecuting the war, and some in this regard, some have worried about the limitation on the use of ground forces; others have argued that the problem is chiefly the 3-year proposed sunset. I think both concerns are actually misplaced, at least as a legal matter, though Professor Chesney's point that they may have political--operate as political constraints is certainly a valid one.    I think it is misplaced as a legal matter for largely the same reason, which Professor Chesney just alluded to, which is that this authorization, at least as the administration proposes it, is not the President's only source of authority to use force. And so limitations in the authorization don't limit Presidential power to the extent that some other authority exists for the contemplated action.    The proposed authorization leaves in place untouched the 2001 AUMF, which the administration has construed quite broadly, which does--including to cover all of its operations today, and which doesn't contain a sunset provision. So the result is that you actually have these optical restraints that don't, in fact, do what they seem to say they are doing.    So, moreover, I think it is implausible, and both of my co-panelists have mentioned this, that the ground force limitation in the AUMF is, you know, quite what it seems to be even if it were the only source of authority, and the reason is the elasticity of the word ``enduring'' and ``offensive.'' And I think all--the resolution does not define either word.    And there is just a lot of room for elastic interpretation there, and I can't imagine that an administration that wanted to use ground forces in any significant way would not be able to either define them as not offensive or define them as something less than enduring.    A number of commentators have also complained that the draft resolution contains no hard geographic limitations that would contain it to Iraq and Syria. I think this is a--this criticism actually denigrates what is one of the virtues of the administration's AUMF.    ISIL is a fluid enemy. It is by no means likely to restrict its activities to Iraq and Syria. And, as General Keane points out, it is already developing relationships with countries elsewhere, with groups elsewhere that, you know, would be off limits if a hard geographical limit were--limitation were in the document and the document were legally operative.    I ask you to consider that if a similar geographic limitation had been inside the original 2001 AUMF we would never have been able to undertake, under that authorization, operations against AQAP, which have been so vital to American counterterrorism.    All that said, I do think the administration's draft has serious problems, which mostly have their roots in the proposal's breadth and failure to grapple with the relationship with the underlying 2001 AUMF. Now, as a lot of people have noted, the document, on its face, does not appear broad. It seems to have all these limitations.    But it is actually written very carefully to make the--create the impression of significant limitations without the reality. And the administration's lawyers have succeeded in this to a degree that they are being denounced for the breadth, for the restrictions in the proposal rather than developing anxiety about its actual breadth.    In fact, the real problem is that, despite the appearance of accepting restraint, the document contains virtually no meaningful restraints at all. And the reason for that is the failure to grapple with the underlying 2001 AUMF, which it leaves in place without any--I also have developed anxieties about the word ``sunset,'' but without any forcing mechanism for reconsideration.    So under the administration's proposal, at least as a legal matter, the President would have all the authority he has today, including all the authority to fight ISIL under the 2001 AUMF. And in addition to that, he would also be granted 3 years of even broader authority to target ISIL and its associated forces. And by the way, the draft defines ``associated forces'' quite broadly.    Thus, the limitations on ground forces is entirely meaningless, since the 2001 AUMF remains in place. This doesn't concern me particularly because I don't actually favor a ground force limitation, but for those who do favor a ground force limitation, I think you should be particularly concerned by one that is there in appearance but not in reality.    The 3-year sunset is also largely meaningless because the 2001 AUMF doesn't sunset. And the reporting requirements, which are quite anemic on their own terms, are similarly empty, and I think that should be a particular concern to this committee.    Second point I want to advance is that there is an alternative to this approach. In November of last year my co-panelist Robert Chesney, Jack Goldsmith, Matt Waxman, and I jointly drafted a possible AUMF, which we sort of imagined as a way of sort of kick-starting a discussion on the subject.    It did, and actually a lot of consensus developed between our author group and a group over at the Just Security website about the components of a new AUMF. Unlike the President's recent proposal, our proposal aimed to integrate authorization for the fight against ISIL into authorization for the larger conflict, and we tried to supplant the existing AUMF with a more modern document to respond to exactly the concerns that Professor Chesney just laid out.    So I want to identify a few aspects of this proposal that are relevant, in light of the criticisms that the President's AUMF has received both from the right, left, and center.    So first, unlike the President's draft, our proposal would subsume the current AUMF, which covers, as the administration and the courts interpreted, Al Qaeda, the Taliban, and associated forces, and it would then repeal the underlying document. The result is that there would be a single authorization for fighting Al Qaeda, the Taliban, ISIL, and all of their associates.    Second, because there would be no duplication in the authorization, the proposal's sunset provision would actually means something. It would actually serve the forcing function that the chairman was referring to.    Third, while the draft does not contain specific geographic limitations, as the President's does, like the President's, it does not contain that, but it does authorize force only where it could be used consist with applicable international law concerning sovereignty and the use of force, thus giving some territorial guidance. It would allow the sort of things we did with Al Qaeda in the Arabian Peninsula; it would not allow, say, the use of force or authorize the use of force, you know, in France.    And fourth, the proposal contains significantly more robust reporting requirements than does the administration's draft, and I would urge you, even if you are proceeding off of the administration's draft, to look at the disparity between what we would have asked them to report and what they want to have reported. I think that difference alone is very substantial.    So look, I have no doubt that our proposal could stand significant improvement in any number of areas, and there are aspects of it, actually looking back at it 5 months after we wrote it, that I would change. But our--I think our draft offers an approach that is far less susceptible than the administration's draft to the concerns that many scholars across the political spectrum have raised.    And as this body considers how to authorize the conflict against ISIL and how--and really importantly, how that authorization should interact with the existing AUMF, our proposal may offer an alternative way forward that might attract a broader swath of support.    So thank you very much. Look forward to taking any questions.    [The prepared statement of Mr. Wittes can be found in the Appendix on page 84.]    The Chairman. Thank you.    And I appreciate, again, testimony from each of you.    I guess I would like to have each of you comment on kind of a basic question, which is how important do you think it is for Congress to authorize a use of military force? I am not really talking about whether the 2001 covers ISIL, that is--although that is an interesting question I would hope we get to today.    What I am talking about is some people argue that Article 2 means the President can do whatever he needs to do to protect the country, and terrorism is a threat so he can take action whenever and however he wants to. On a more practical level, some folks say, ``He has been bombing for 6 months. Why do you need to act now? You know, just don't worry about it. Let it go on.''    So, Mr. Wittes, starting with you, I would like to hear your views about the constitutional and legal importance of Congress acting to authorize a President's use of military force.    And then, General Keane, by the time we get back to you I would like to hear how that affects our troops, how they see Congress acting or not acting to authorize the missions on which the Commander in Chief sends them.    So if we can just go backwards up the line.    Mr. Wittes.</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>400209</t>
   </si>
   <si>
-    <t>Walter B. Jones</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jones. Mr. Chairman, thank you very much.    And I thank the panelists for being here today to talk about the President's AUMF.    And I would like to make a couple points, and then probably, Dean Chesney, I am going to come back to you.    You know, the fact is it is so vague, and y'all have already commented on that, and whether it should be expanded beyond ISIL, as to what groups could be a threat, what groups need to be fought and defeated. Let me make that point.    Also, the issue of sunset, whether it should be sunset or not. I was in the Congress--I have been here 20 years--I was here at9/11. I was part of this committee at that time. I remember the anxiety of the American people--and also those of us in Congress, by the way, that we had to do something, we had to give President Bush the authority to fight this enemy that had done so much damage to America. So we passed the AUMF for 2001 and then a year or two later we passed another AUMF for Iraq.    Well, I bring that up because we are still there. If there had been a sunset with either of the two, do you think, Dean, that President Obama would have thought he had the authority to bomb Libya?    Bob Gates, the Secretary of Defense, was sitting exactly where you are when my good friend Randy Forbes, who has now left the committee for another meeting, asked Secretary Gates, ``If Libya had dropped a bomb on New York City, would that be an act of war?'' He never answered. He never answered.    So the point is that Mr. Obama did not come to Congress in any way to say to the Congress, this committee or any other committee, that we have got a problem with Gaddafi and Libya and we are going to attack. That is what has got the American people concerned not just about Mr. Obama, but any President that has any type of authority that he or she can turn their nose up to the Constitution.    And we are complicit, as a Congress, if we give them such authority that there are no limits to that authority, and actually, there are no end points to the strategy that an administration--forget whether it is Obama administration or another administration--that we become complicit, as Members of Congress who uphold our hands and say, ``We will support the Constitution of the United States,'' and we know the requirement of the Constitution as it--excuse me--as it reflects to war powers.    So my question to you is that if these 2001 and 2002 had had a sunset, do you think that Mr. Obama would have felt that he could bypass Congress and bomb a foreign country? Because my belief is, as a non-attorney, that if he had done that then we get into international law, that I don't think any nation, as great as America is, should have the power to just decide to go in and bomb another country because we don't like their leadership.    And so, therefore, I think the AUMF needs to be vetted very carefully as we move forward. But I want to ask you--if you got a minute, give it to you, I want to ask you that if we had sunsetted those two AUMFs, do you think Mr. Obama would have felt he had the justification to bomb Libya?</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman.    And thank you all very much for being here, for your service, particularly General Keane, and for your insights.    I want to actually turn to something that maybe we have a little more control over, and that is the reporting mechanism.    And, Mr. Wittes, you talked about that.    General Keane, you yourself mentioned in your remarks or in the article that we were 3 years into a failing strategy with the war in Iraq, and you talked about the adaptiveness, and I appreciate that, in terms of our military.    But I guess I am looking for what language you think is appropriate in terms of the reporting mechanism to the Congress? Because there are a few of us who were here at that time and, I don't know, how do you think we did?    How did we do in terms of that oversight role? Because if we were 3 years into a failing strategy, had difficulty asking the questions, and, frankly, a great deal of difficulty getting answers, what is it that we need to do now?</t>
   </si>
   <si>
@@ -127,9 +112,6 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman.    And thank each of you for being here today.    And, General Keane, I want to thank you for your service on cable news. It is always really so solid, the information you provide; it is so meaningful, and so important to the American people.    It is particularly meaningful to me. I have four sons currently serving in the military of the United States, and every time I see you on the air it is a reminder to me of how capable and competent the American military is. And so I want to thank you for that.    I also would like your input on what suggestions do you have for the AUMF, and what language should there be for the flexibility for our President to be able to lead us to victory?    General Keane. Well, I think the language in the--that we found in the other two AMFs--AUMFs, excuse me, where we are talking about using the appropriate and necessary force, a very short statement to that effect, really is appropriate.    As I stated in oral statement, I don't believe we need, nor should we have, a time constraint in it. Why cast any doubt about our resolve? Why do that?    This administration has a pattern of doing that in the past, as we recognized when the President I think rightfully made the commitment to escalate our forces in Afghanistan. In the same public policy statement he announced the termination of that force, as well. I think that is an unnecessary flag to our enemy about our lack of commitment, and I also think it does much the same with our allies.    So I would avoid that for those reasons. And I do believe that, given the authorities the Congress has and the oversight responsibilities, you can get at this another way.    I would agree with Mr. Chesney that if you kick this thing down the road a little bit, a few more years, then some of that does go away, in terms of the lack of resolve and commitment. But 3 years I think is unacceptable.    The ground force constraint I think has to be absolutely removed because of what we are dealing with. We are facing an enemy that, in the front of us, we have to deal with largely militarily. At the same time we are trying to counter their finances, undermine their ideology, but this right now it is a central military problem.    And we already know that the only way that we can defeat this force is with effective ground operations. So anything in this document that would cast doubt on our ability to conduct decisive and effective ground force operations seems to me to be misguided and it should not be in the document.    I would bow to my--Mr. Wittes on my left knows far more about the intricacies of the legality of this than I do, but I--and the fact that the President would still have the authority even though the appearance of it would be that he does not. I would not want that confusion. I don't want our troops to have that kind of confusion. It doesn't make any sense to me.    And those are the essential issues for me. I am for a President having the latitude to conduct military operations without these constraints on it.</t>
   </si>
   <si>
@@ -145,9 +127,6 @@
     <t>412382</t>
   </si>
   <si>
-    <t>John Garamendi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Garamendi. Thank you very much, Mr. Chairman. And a big thank you to you for conducting this hearing and, I understand, another hearing coming up next week or thereafter on the military side of this, what might be necessary.    We are doing exactly what we should be doing as Members of Congress. In my view it is absolutely essential for Congress to act. To use the 2001 or the 2002 AUMF as a reason for a new war, actually, a war that was declared over in Iraq is, in my estimation, just dead wrong.    And we have a responsibility. We represent the American people, 535 of us plus one, the President, and we have the obligation to deal with this. Not easy. Easier to duck. But it is our responsibility.    With regard to the 2001 AUMF still being in place and the sunset, the 2001 AUMF proves the reason for a sunset; an unending war can't continue it. We have got to deal with this, and the sunset seems to me to be absolutely appropriate in that.    And 3 years requires that the next Presidential election be about war. And that is a really good thing for the United States to debate and to discuss.    With regard to the issue of, and this is coming to a question, the issue of limitations of the use of boots on the ground, which the President says he wants to limit but then writes in such a way as probably not limiting, is there any debate between our two esteemed lawyers and general about the ability of Congress to use the purse to limit the use of ground troops, for example, no money for infantry brigades, Army brigades, artillery, and et cetera, but perhaps money for special forces and the like? Is there any doubt about the ability of Congress to limit using the purse?</t>
   </si>
   <si>
@@ -166,9 +145,6 @@
     <t>412275</t>
   </si>
   <si>
-    <t>John Fleming</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you, Mr. Chairman.    Thank you, gentlemen, for being here today.    General Keane, one of my primary concerns above what is contained within the AUMF is the fact that I still don't know a clear and coherent strategy upon which we will use the AUMF. The President has not outlined--in fact, at one point he even said we didn't have a strategy, so I have a deep concern about whatever the AUMF ends up being, what is going to be the strategy that goes along with that.    I would love to hear what you have to say about that.    General Keane. Well, you know, I agree with you. And it is pretty frustrating about what is being said and also what is not being said.    I think, clearly, just dealing with ISIS and dealing with Iraq and Syria, what is the strategy to degrade and destroy, defeat is a much better word than destroy, ISIS? We are saying to ourselves that we have an Iraq strategy first, which is to reclaim the territory that is lost.    To do that, we know we need ground forces to do it. The air power has largely stalled, effective air power has largely stalled ISIS offensive campaigns, no longer really taking territory in any large way in Iraq.    It has taken territory in Syria since the bombing campaign began. That is another story.    We are depending on local indigenous forces to be that ground force, but then we also know that we have problems with this force, that it is not a homogeneous force. It is Peshmerga, it is Shia militia, it is Iraqi Security Forces, it is Sunni tribes.    And we also know that we want air power to be effective, but we are not going to put any boots on the ground to help that force be more effective. My simple way of dealing with this: If you think you have a weak hand, do what you can to strengthen that hand.    What we want to avoid doing is what the Congressman from California would like to constrain the President from doing. We all want to avoid using combat brigades to go deal with this. We want these people, the Iraqis, to bear the burden of this, not us, on the ground. You won't get anybody in the military signing up for sending large combat brigades in there.    But that strategy, I think, is flawed because we are not providing enough assistance to this local indigenous force that is weak, and by that I mean is special forces who can go with them on the ground, forward air controllers to help them, significant amounts of Apache helicopters, AC-130 gunships, JSOC [Joint Special Operations Command] direct action forces to go kill leaders like we do in Iraq and Afghanistan very successfully, on the ground, I may say. And these are questions I think that you can ask the military leaders when they come forward.    In Syria, sir, there is no ground force.</t>
   </si>
   <si>
@@ -184,9 +160,6 @@
     <t>412533</t>
   </si>
   <si>
-    <t>Tammy Duckworth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman.    Gentlemen, I thank you for being here today.    And, of course, thank you, Mr. Chairman, for bringing this hearing--this issue to our hearing.    I am encouraged by the fact that we are finally having this debate because I think Congress failed last fall to not only have an honest discussion about our overall strategy to defeat ISIS, but we also failed to discuss the underpinning authorities for that strategy. I think regardless of where you come down on this issue, it is important that we have the discussion, so I am glad that we are here.    I want to first off just say that the paramount importance is to make sure that our troops who are sent into harm's way know that all of America is behind them. When they go to battle and they go to fight and they go to potentially lay down their lives for this Nation, they need to know that we are behind them and that they--that we will be there to help provide them with the resources that they need to do the job that we ask them to do.    That said, I think the AUMF is critically important. I actually voted against the repeal of both the 2001 and 2002 AUMFs in the past when they came up on the floor as amendments to NDAA [National Defense Authorization Act] and defense appropriations not because I fully support them, but because there was no alternative at the time.    Now that we are looking at this new alternative, I like the fact--the proposal that this new AUMF should subsume and we should get rid of the 2001, and I agree with that.    What I do want to do is to drill down on the geographic boundaries portion of it, and specifically the Brookings Institution's proposal to, instead of having a geographic boundary, a legal boundary, one that is in conjunction with international laws for the use of force and sovereignty.    So could you--is it Wittes or Wittes?</t>
   </si>
   <si>
@@ -223,9 +196,6 @@
     <t>400411</t>
   </si>
   <si>
-    <t>Michael R. Turner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Turner. Thank you, Mr. Chairman.    Gentlemen, one of the things that we are being asked to do is to repeal the 2002 authorization for the use of military force. As you know, the 2002 AUMF with--concerning Iraq found that Iraq poses a continuing threat to the national security of the United States and international peace and security in the Persian Gulf region, and because members of Al Qaeda are known to be in Iraq.    I would like your opinion, because it would seem to me that even though the Saddam Hussein regime has been removed from power, that the objectives in the 2002 resolution remain: protecting both United States and Iraqi minority groups as well as ending terrorism in Iraq. All of those objectives are still in doubt, and therefore it does seem that there may be a compelling legal rationale for keeping the 2002 AUMF in force since the President obviously is finding that he has very broad authority under it currently.    So do you believe that leaving the 2002 AUMF concerning Iraq in place would be a conflict, and would you recommend removing the text that repeals the 2002 AUMF? Any thoughts?</t>
   </si>
   <si>
@@ -241,9 +211,6 @@
     <t xml:space="preserve">    Mr. Turner. Excellent. Thank you.    Thank you, Mr. Chairman.    The Chairman. Thank you.    Mr. O'Rourke.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman. I wanted to start by thanking you and the ranking member for holding this hearing.    I can think of no more important decision that we will make as Members of Congress than whether or not to send our Armed Forces into harm's way, and I appreciate the fact that we have got the subject matter experts before us to help us make a more informed decision. I hope that we will have more hearings on this subject. It certainly warrants it.    And I also want to agree with the fundamental questions asked by the chairman, you know, what is our strategy? And the ranking member, how do we help out without making the problem worse? I think those are the questions of the day, and I realize very difficult to answer.    General Keane, I couldn't help but agree with you when you said that we shouldn't put limitations on our military if we are asking them to go in and do a very difficult job, if we want to acknowledge that there are no ground forces today in Syria that we can rely on. It is very questionable whether there are ground forces in Iraq that we can rely on that are not our own.    And so if we are going to go in, and if we want to win, then we need to do whatever is necessary to do that.    But I also think about the service members at Fort Bliss, whom I have the honor of representing, the veterans who have come back from wars throughout our history, including the most recent engagements in the Middle East. And while I agree with Ms. Duckworth that they want to know that we have their back and that we support them, I think what they want to know even more than that is that we have a plan and we have a strategy before we send them into harm's way.    So I would like to ask you to do this, I don't know that in the 3 minutes remaining we can define what that strategy should look like. If you can, go for it.    But how about this: Can you define what winning looks like? Can you define the conditions that would be necessary in Iraq and Syria or vis-a-vis ISIS for us to conclude military operations?    And I will start with General Keane and then we can move to your left across the panel.    General Keane. Well, ISIL is a little different organization than Al Qaeda because owning territory, it provides them a legitimacy and it is part of their belief system. So you fundamentally, to defeat them, have to begin by taking their territory away from them.    They will largely stay and fight. We found that when we went into Afghanistan, where Al Qaeda was initially at post-9/11, when they were met with some sizeable force--not necessarily a decisive force--they ran into the mountains and hills of Pakistan. They fled to fight another day. This organization will not do that.    So what we must do is take the territory away from them which provides them their legitimacy. And by returning Iraq to its sovereignty, to its borders, that is a good thing and that is what winning looks like.    The same thing in taking the territory away from them in Syria.    That would not stop ISIS from conducting terrorist activities in those same countries from outside the country or from a small safe haven in it, or using terrorist activities in cyber terrorism, which they are also doing, in other satellite countries. But where core ISIS is, we must take the territory away that they own, and that begins to look like we are winning.    That doesn't mean ISIS goes away, because as the map I showed you, they have affiliates out there in satellites that they are trying to establish governance with and relationships with. But this is central to ISIS.    And let's face it: ISIS has quite an appeal in the world today, and why is that? Because they have the appearances of winning. They are standing up to the United States and powerful nations; they are humiliating these nations by how--the barbarism and butchery that they do on the Internet. And they have had some impact with citizens in other countries killing their fellow citizens, as well.    When you start to take this territory away from them, and you start to kill and capture them, and you find them in shackles, and they are moving into detention centers by the scores, this image, this attractiveness of ISIS begins to fade because now it is a losing organization. And it starts to impact on its ability to recruit people. Nobody wants to be a part of a losing, failing organization.</t>
   </si>
   <si>
@@ -253,9 +220,6 @@
     <t>412255</t>
   </si>
   <si>
-    <t>Robert J. Wittman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman.    General Keane, Mr. Chesney, Mr. Wittes, thanks so much for joining us today.    General Keane, I wanted to ask you, from your perspective, and examining all the issues around an authorization of the use of military force, what would be some of the questions that you would suggest that we ask of our military leaders, with all the conditions that have to be considered here: the controversy of timeframes, the extent of which--how we identify the adversary, how we go after them, what should the scope and breadth of that be? Give me your perspective on some of the aspects that we should get the military leaders' perspective on?    General Keane. Certainly. Well, first of all, I think you are bringing General Austin in here, CENTCOM commander. I have known him for years, worked with him, a very fine officer, and certainly with his depth of experience I think you are going to get all the answers you want, but here are a couple of suggestions.    Number one, we are so dependent on this indigenous force in Iraq, I mean, it is appropriate to find out--get an assessment of the quality of that force and its reliability. After all, we did see this Iraqi army, despite all the years of investment in it, painfully watched it collapse in the face of ISIS, which wasn't that much of an overwhelming force. The Iraqi army outnumbered ISIS somewhere in the neighborhood of eight-to-one, but yet it collapsed in the face of it.    So what has happened in the last year or so that changed that? This is crucial to our success. And what could we do, as the coalition, not just the United States, to help that force be better; not just in training, but advising it and also giving it military capability to assist in that force?    What kind of timeframe are we really talking about here? Is this sometime this year, as the media seems to be reporting, and also CENTCOM gave us an awful lot of information on that themselves, which I was a little surprised with, in terms of the qualitative approach and quantitative approach to the force itself. But that is an important issue.    In dealing with Syria itself; let me come back to Iraq.    One of the key dimensions in Iraq is clearly the Sunni tribes, and where are we in the growth and development of the Sunni tribes' willingness to participate under arms? And I know we are doing--we are conducting some assistance of them.    Most of them are reconcilable, and we know these leaders very well from our association with them. There are a few irreconcilables from the previous Saddam Hussein regime, and they are supporting ISIS; they always will. Where are we with that in--and the Abadi government's willingness to be politically inclusive with them?    Another issue deals with Shia militia itself. The Shia militia is a very strong force. The cleric Sistani asked for popular support for it.    It goes well close to 100,000-plus, maybe close to 200,000 volunteers who have thickened the Iraqi Security Forces. The best of the Shia militia forces are those that are backed by Iranians and have had a role in training them. What does this mean to us as we go forward in terms of the Shia militia's role in helping to reclaim territory?    Also, are we finally equipping the Peshmerga with what they need? They have been complaining to every one of you and to anybody that visits them that they still haven't got the equipment they need.    In Syria the real issue, as I have tried to point out, is the ground force itself. What will be the ground force that will eventually defeat ISIS in Syria? And I think if the answer is the Free Syrian Army, I think you need to push pretty hard on that, because it doesn't seem to be viable to me.    I believe it is an Arab coalition that will have to be put together. They will probably ask us to lead it, and I think it is likely we probably should. I don't think we could do that unless we shut down Assad's air power.    And I also believe that the administration doesn't want to do any of that. And even though Turkey, the UAE [United Arab Emirates], Saudi Arabia, and Jordan want the administration to do that, in other words, shut Assad's air power down so that finally we can start to do something against ISIS and you are not bombing the Free Syrian Army force every day. That is what he is doing.    I think the elephant in the room there, quite frankly, is the nuclear deal with Iran, that the administration does not want to push on Assad because of the relationship with Iran. Iran propped that regime up; it rescued that regime from failure.    And if we pushed on it I think it would jeopardize the pending potential deal on nuclear weapons, which I think the administration believes is its number one priority. Probably wouldn't say that, but I believe it is.    I don't think General Austin will get much involved in that because that is a policy question above his head, but certainly these other things he would be prepared to answer, and I think you will get some very straight answers from him.</t>
   </si>
   <si>
@@ -265,9 +229,6 @@
     <t>412606</t>
   </si>
   <si>
-    <t>Donald Norcross</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Norcross. Thank you, Chairman. Certainly appreciate it.    And, you know, one of the duties that we have is to make decisions on these very difficult items, and it weighs heavily certainly on my mind and those of the people that I represent.    Certainly I have to agree with the witnesses when they talk about three reasons that we are even considering this: obviously the moral reason, which I agree with; the age and scope of the old AUMF; and certainly, it is our job, which actually brings me to the point of the question.    King Abdullah was here 2, 3 weeks ago, and it was the day that the video was released of his pilot being burned to death in a cage; that barbaric video. He stated, ``This is our war,'' indicating that he and his partners in the Gulf. It can't be America against them. ``We need your help, but it is our war.''    And the other item which really resonates with me: I have been fighting this for 1,400 years, and brings me back to what Mr. Smith had said is beating down the mole. So we heard the question earlier talking about what is a win, and certainly the nuts and bolts of a win can be debated. But I think those who we are targeting, it is not a team sport that they win and lose; it is a way of life.    And I think we have heard ample evidence of that, that they are willing to give everything up because they believe in this at a core level. Whether we think it is insane or not is immaterial.    But you had talked rather, General, directly against a timeframe. Couldn't the same argument be spoken about the timeframe is, each year we authorize a budget, and in many ways that is a timeframe.    I think it is the responsibility of the next President and next Congress to review what we are doing. And I don't think anybody in this room or in America doubts the resolve of the American people to back up our troops.    So I want to get your opinion on where we are going with the timeframe again, given that at any point they could point to the fact that we wouldn't fund this or the budget and appropriations. How is that different than the resolve of a 2- or a 3-year AUMF?    General Keane. Well, in my mind, I mean, the budget is an annual process, and that is quite different even though there are plenty of authorities in a budget, obviously, to fund military operations. But that is quite different from the AUMF, where you are authorizing military force for a specific purpose and then tying a timeframe to that authorization.    I am suggesting that why do that when you have plenty of authority yourselves in your normal oversight of the Department of Defense and the executive branch to make certain that you understand what is taking place and the progress that is taking place and you have the power of the purse in any event, which is your ultimate authority? I think it sends a message of a lack of resolve.    You know as well as I do that our friends in the region, and if you are speaking to them you know what I am about to say, that they have been questioning America's resolve in this region for some time now.</t>
   </si>
   <si>
@@ -283,9 +244,6 @@
     <t>400141</t>
   </si>
   <si>
-    <t>Trent Franks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Franks. Well, thank you, Mr. Chairman.    And thank all of you for being here.    General Keane, I don't ever want to let a general stand before this committee without expressing gratitude for your service and for just your commitment to protect human freedom, especially my little babies. I appreciate it.    I was especially moved by your comments related to the resolve that I think the enemy tries to consider as much as anything else. And the administration's AUMF mentions using American forces, ``in support of partners on the ground and local forces to combat ISIS.''    One of my concerns is that there is an ancillary effect that it might end up where we are even indirectly funding Shia militia proxies of Iran, and it might actually increase their standing in the world to the extent that it might actually increase their opportunity to one day gain a nuclear weapons capability. And do you think that the AUMF, as it stands now, opens us up to the potential of the ancillary effect of fighting alongside Iran?    General Keane. Well, clearly we cannot disguise the fact that there are Shia militia that is largely protecting Baghdad and also the shrines, the Shia shrines, north and south, that are present there, and some of them have been trained by the Iranians. And they also have been effective, and they will continue to be effective. So that reality is on the ground and it is not going to change.    That does not mean that when Iraq gets its total territory back and its sovereignty is returned to its borders that Iran is going to have a grip on Iraq that is totally dysfunctional. The Iraqis don't want that. Certainly Abadi wants no part of that.    He also did not turn down, his predecessor didn't turn down, when he asked for help, airplanes started arriving day one. And we put off help for a few months, if you will recall that. And he was not about to turn that help down from a practical matter.    When you look at it geopolitically, Iraq wants to stand on its own two feet. Iran will always have an influence there, given its neighbor and also given the fact that they have helped them here.    But I do think that the coalition that is coming together to help Iraq and to return its sovereignty, we will have a long-term strategic relationship with Iraq on a path that we had intended to do back in 2009, when we had driven this Al Qaeda in Iraq into their rat holes. So I think those opportunities are still there.    I don't think that the Shia militia backed by the Iranians forecloses on a strategic relationship with Iraq over the long term that makes sense to us in terms of a country that has wealth, an educated class of people, and is a force for stability in the region. Those opportunities are still there.</t>
   </si>
   <si>
@@ -295,9 +253,6 @@
     <t xml:space="preserve">    Mr. Franks. Thank you, sir.    The Chairman. Mr. Takai.</t>
   </si>
   <si>
-    <t>Takai</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takai. Thank you, Mr. Chairman, and really thank you very much for having this hearing. As many have mentioned, this is a very important issue for all of us here and definitely for our constituents back at home.    I looked at the request from the President in the form of this joint resolution, and under section (c) limitations it says the authority of the grant does not authorize the use of the United States Armed Forces in, ``enduring offensive ground combat operations.''    So my question to you on the panel is, what does that mean? Does it actually refer to the length of time during which the operations will be ongoing for 3 years? What is the scope of the operation, from your perspective? And is it, in fact, some undefined relationship between time and scope?</t>
   </si>
   <si>
@@ -322,9 +277,6 @@
     <t>412417</t>
   </si>
   <si>
-    <t>Austin Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman.    Gentlemen, thank you for being here.    And the authorization that the President submitted to Congress lists one terrorist group in two countries. I have got a Defense Intelligence Agency report right here that is unclassified that says that we are chasing 41 terrorist groups in 24 countries. And I think that one of my concerns, or I know one of my concerns, and I think other people's concerns, with the way the authorization is drafted is, what if they simply change their name or what if they simply cross borders into another country?    The other thing that I would point out is that the President had the authority several months ago, when we first saw the ISIL convoys, to take action at that stage and he chose not to, and I think that one of the reasons that we are in the situation we are today is because they were indecisive at that point, and quite honestly, it is almost like they let them kill enough people that now all of a sudden they have to do something about it.    I want to go back to 2011 for a second. The decision was made to take Gaddafi out, yet the United States did not secure the weapons in Libya. I would like to know what do you think happened to the weapons in Libya when Gaddafi was removed, since we did not go into the country and secure them?    The other thing I would suggest is that the U.S., through the State Department, for years has been undermining Assad and the central government of Syria. That, to me, seems to have been one of the things that has allowed these terrorist groups to grow.    And then finally, I would like--and, General, this may be more of a question for you because of your military experience, what does the hold force look like? I have no idea that we can move these terrorists out of any territory that we choose to move them out of, but what does the hold force look like to hold that territory? Because if we can't hold it this time, we are simply going to be right back in there again.    General Keane. Okay. Well, that is a mouthful. Let me try to get to you with some of it and hopefully leave some time for others. But, you know, in terms of the enemy itself, I think saying ``ISIS'' and also putting the word ``associates'' in there clearly sends a message that this is--ISIS, as I tried to show you on ISW's map, clearly has intent and is moving outside of ISIS, the Islamic State of Iraq and al-Sham, which is essentially the Levant. And you would not want to restrict the President geographically or in terms of what this enemy calls itself and who it is affiliated with.    It doesn't mean that on that map that is in front of you that we would obviously be dealing with ISIS in all of those countries. I think we would have to give the President a lot more credit than that. But the fact of the matter is, if we wanted to conduct a counterterrorism operation against ISIS in Libya because al-Sisi asked us to do that, and we want to do it together, and we have got good reason to do it, that may be something the President would want to consider and we would want him to have the flexibility to do that.</t>
   </si>
   <si>
@@ -343,9 +295,6 @@
     <t>412532</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman.    Thank you, gentlemen, for being here today.    There are so many different points and angles, and difficult to address them quickly in less than 5 minutes, but I want to touch on the point that many have made about the need to address and come up with an effective strategy to defeat this threat not only militarily but simultaneously ideologically; that, as you said, General Keane, as we saw with Al Qaeda, because this was never addressed up front we find ourselves in the situation that we are in today.    So my question is about how we deal with this issue within the construct. Each of you believe that there should be an AUMF passed to deal with this, and how that issue of ideology is addressed within this document.    And secondly, as we talk about what is coming in Mosul but also generally, as we look at the military strategy to defeat this enemy, why it is so important to address the ideology is, for example, if we had a primarily U.S.-led ground force it would play directly into the ideology and major recruiting propaganda that groups like ISIS are using, that this is a war between the West and Muslims, as opposed to supporting what President al-Sisi is calling for, this Arab regional ground force.    So specifically with the AUMF, I am wondering if you can address that question with regards to the fact that this must have a military and ideology component to the strategy.    We can start with General Keane.    General Keane. Well, you know I have very strong feelings about the fact that we have to recognize it for what it is. What we have failed to do is name the movement properly, then we don't define it, and we certainly have done a terrible job in explaining its ideology.    And by putting a magnifying glass on that ideology and then having the moderate and the traditionalist Muslims explain why the Islam that they are following is powerful and why 95, 97 percent of the Muslims in the world are following it, and why that should shape and define people's lives and why this other following is absolutely antithetical to it, that has to take place. And I would suggest that we are not the best to do that. This is about Muslims doing this, educating not only Muslims about it, but educating the rest of us about this.    And I do think the United States can play a leadership role here in terms of encouraging this and getting the majority of the Muslims, and there are many of them that speak out, but getting their clerical leaders to really speak out in a theological way to deal with this issue.    Certainly the military component here is what is right in front of us. We have a marauding enemy that is killing people every single day; most of it is not being exposed on the Internet.    And this kind of brutality and barbarism has to be stopped. The only way you can stop that killing is you have to kill the people who are doing it and--or you have to capture them.    All that said, we don't want to fight another movement like this 5 years from now or 8 years from now, and that is what brings in your comment about the ideology and countering that entire narrative. We need a longer-term issue to get at that.    And yes, there are conditions in this region that helped to grow some of this movement. Political reform, social justice, and some of the economic repression in the region are conditions that contribute to it. They are not necessarily central to it, but they are there contributing it and we have to have those kind of sensible dialogues with our friends in the region who, in fact, contribute to some of these problems.</t>
   </si>
   <si>
@@ -361,9 +310,6 @@
     <t>412395</t>
   </si>
   <si>
-    <t>Mo Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brooks. Thank you, Mr. Chairman.    During my time I would like to emphasize the very broad nature and scope of the war resolution that we are being asked to support. In particular, and this has been mentioned by some of the other Congressmen and by the witnesses, there are no geographic limitations. And as I understand it from the information I have, you can make the case that the Islamic State is active of course in Iraq and Syria, but also Jordan, Libya, Egypt, Algeria, Tunisia, Yemen, Saudi Arabia, and other nations.    Under the war resolution that we are being asked to support, in section 2 it states, ``The President is authorized to use the armed forces of the United States as the President determines to be necessary and appropriate against ISIL or associated persons or forces as defined in section 5.''    You go down to section 5: The term ``associated persons or forces'' means individuals and organizations fighting for, on behalf of, or alongside ISIL, which is, as we know, covering virtually every continent on Earth, with the possible exception of Antarctica, and many of the countries that are on each of those continents, because the Islamic State has done a fairly good job of recruiting its people from all corners of the globe.    In that vein, then, I want to emphasize a couple of questions but ask you to ask one of them.    First, how is America going to pay for it? This is an extraordinary cost, and we have had witnesses where you are sitting now who have already said that the greatest national security threat that the United States of America faces is our deficit and accumulated debt that ultimately has the potential of exposing us to a devastating insolvency and bankruptcy, which would eliminate our ability to have a national defense. Those words, in effect, came from Admiral Mike Mullen when he was Chairman of the Joint Chiefs of Staff.    Second, how does diversion of defense money to this effort to fight the Islamic State undermine our defense capabilities and the rest of the needs for America's national security?    The question I want you to answer, though, is, if Congress adopts this war resolution or a similar one, how does that action affect the willingness of the rest of the world, and Europe in particular--Germany, France, United Kingdom, Italy, and the like--to shoulder more of the burden, to spend their treasury, to risk the lives of their young men and women now that they know that the United States of America is once again willing to pay the price for the world's security? So if we pass this war resolution, how does that impact the willingness of other nations that are at risk to spend their money and risk their young men and women?</t>
   </si>
   <si>
@@ -385,9 +331,6 @@
     <t>412632</t>
   </si>
   <si>
-    <t>Seth Moulton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Moulton. Thank you, Mr. Chairman.    And, gentlemen, thank you very much for joining us here this morning.    General Keane, I want to specifically thank you, because I was an infantry officer in the surge, I am greatly appreciative of what you did to help turn that war around.    I respectfully disagree with an earlier statement one of my colleagues made that the most important thing for the troops on the ground is to know that all of America is behind them. I knew that all of America wasn't supportive of what I was doing in Iraq, but you, with the help of General Petraeus and others, gave us some hope, some faith that we had a plan, that our effort, our sacrifice, our loss would not be in vain.    And so I, among many others, come back to this fundamental issue that we don't seem to have a strategy here.    I just returned from a CODEL [congressional delegation] to Iraq and Afghanistan and received countless briefs on a three-phased plan. And we all know that phase four was what was missing back in 2003, and it seems like it is missing again here.    I have not seen a good plan to deal with the Sunni tribes, to deal with the Shiite militias, and that is just in Iraq. I agree with your assessment that we don't seem to have much of any plan at all for Syria.    So my question is, how do we, how do you try to influence this debate to actually get a strategy? Somehow you were able to take a failing war in Iraq and help turn it around by bringing a workable strategy into the discussion and then eventually getting it enacted. If you could comment on that, maybe we could see a path forward.    General Keane. Well, thank you, and appreciate your service, as well. Semper Fi.</t>
   </si>
   <si>
@@ -406,9 +349,6 @@
     <t>412453</t>
   </si>
   <si>
-    <t>Christopher P. Gibson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gibson. Thanks, Mr. Chairman.    I appreciate the panelists and want to begin just by associating myself with the remarks that General Keane made earlier today with regard to calling things for what they are: Islamic extremists. And I have been saying this for some time.    First of all, it is the reality. The second point is is that it really then lays bare what our enemy is trying to do. This extremist group, this Islamic extremist group, is trying to deceive the Muslim world that somehow they are advancing their cause. This is how they are trying to recruit and fundraise.    So when we label it as it is we lessen their ability, especially now, when you see Muslim nations and people standing up to this Islamic extremism in Iraq, Kurds, and then Jordan and Egypt, when we are supporting them we lessen our enemies' ability to recruit and fundraise, and that is the key point here. We can militarily engage at this moment, and, you know, for every one that we kill we end up, you know, dealing with issues of multipliers in terms of recruiting and fundraising; why it is so important to have clarity.    So I just want to associate myself with those remarks.    My question for the panel has to do with, and by the way, I want to thank General Keane. He has always been a source of inspiration and great mentorship to many of those in uniform.    My question is on Syria. Last fall I was not able to vote for arming the so-called Syrian--moderate Syrian army. I gave it a fair hearing. I looked at all briefings and looked at the briefing papers, and at the end of the day I believe that that force was militarily incompetent, politically untrustworthy, and it was going to fail.    So that put me in a--I mean, ethically, morally I felt in a tough spot because I knew that this is an enemy that can't be deterred; they have to be defeated. Question is, how? And we were proposing a strategy that was, in my view, going to fail. And now we are seeing the problems of it.    You know, how do we get anything done of significance in Syria without a political foundation? In Iraq you could argue about the efficacy of that foundation, but you have Iraq, the Kurds, you have a foundation from which to support taking certain action.    In Syria we have really no foundation, so what is the way forward there, from anyone in the panel? Very interested to hear.    General Keane. Well, I will take a stab at it. I mean, Syria is really a tough problem, and there are very good arguments on both sides, on many sides of this issue because it is so challenging. I just want to provide you a couple of data points.    Remember back when the--this was part of the Arab Spring, the people stood up against Assad and, because he was so violently--he used violence to push that--the people back, many of his officers and his troops that--underneath him joined the opposition forces because he was killing his own people in the streets, unlike what took place in Egypt. As a result of that, that opposition force gained momentum and they were--people in this town were predicting it was just a matter of time before Assad falls. Remember that?    And what happened is the Iranians came in, propped up the regime, so did the Russians, and then the Free Syrian Army asked for our help. And this goes back in the 2011 timeframe.    In 2012 ISIS moves into Syria, and would things have been different if we had helped the Free Syrian Army then to maintain that momentum against the regime? I think so; I don't know for sure. But I think we made a huge policy mistake.    And then in 2012 Clinton, Petraeus, Panetta, and Dempsey advocate the same thing as a matter of policy--not just the Free Syrian Army asking; now they are advocating it, and we say no again.    In 2012 the radical Islamists are in Syria, and they are growing in size and scale and adding to the complications of this problem. What they do--they didn't start the Arab Spring but they have always seen it as opportunity, when you have political and social upheaval like this and chaos, they want to take advantage of that because they want to have a seat at the table at the end of it.    That is what we are facing. So it adds to the complications that we have in Syria.    When I put my head on that and try to work out an answer to what needs to be done, I do believe we need to get a political solution in Syria. But how do you get it when Assad has the momentum? You are not going to get it, and the Iranians and the Russians are not going to permit it.    The only thing you can do is change that momentum, and that begins with military, to change the momentum he has. Shut down his air power by the use of no-fly zones and buffer zones. Would he contest that? Unlikely, because we would then destroy his air power.    That begins to change the political situation, because now he is no longer dominating. And it puts pressure on people around him to look for a solution that is beyond Assad.    That, I think, is the general thought process, that you have to get past Assad and you have to see a political solution there--not necessarily the removal of this entire regime, but the removal of Assad, and to some kind of accommodation with its own people--not the radicals, but with its own people that are fighting them. I don't think you can get there unless you took some kind of military action to balance the military situation.    Then you can put together--then I think our friends in the region--I can't say and guarantee you this would happen, but they are all urging us to do what I just said. Then I think you get the makings of an Arab-Turkish coalition, which the United States would participate in, to drive and defeat ISIS in Syria.    Those are kind of the steps, I think, that should be undertaken. But we have no plan to do any of that.</t>
   </si>
   <si>
@@ -418,9 +358,6 @@
     <t>412615</t>
   </si>
   <si>
-    <t>Pete Aguilar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, Mr. Chairman.    Thank you, gentlemen, for joining us.    Mr. Chesney and Mr. Wittes--I am sorry, can you say it one more time?    Wittes. Okay. I was close.    Mr. Chesney and Mr. Wittes, you mentioned during your opening comments the silence that the AUMF has on detention protocols.    So, Mr. Wittes, if you could start, how would the alternative AUMF draft that you created treat detention protocols moving forward, in addition to the current detainees held under the 2001 AUMF?</t>
   </si>
   <si>
@@ -448,9 +385,6 @@
     <t>400230</t>
   </si>
   <si>
-    <t>James R. Langevin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    And I too want to thank our witnesses for your testimony today. Your insights have been invaluable and I think this is a very important discussion. I think there is certainly no greater responsibility that any of us have here on this committee or in government when the decisions come up as to when or whether or not to send our men and women in uniform into harm's way and to get it right when we do.    You all have made clear very important points about why an AUMF is important, again, sending the signals to our allies and our enemies as well as our troops that the law-making branch of government, were going to stand behind their efforts to defeat     I want to give each of you an opportunity, and this has been a pretty thorough discussion already, but give you an additional opportunity to talk about and point out the important points that should be left in an AUMF, which--in this as it is drafted, and which should be removed and within the time that we have, and if you can't get to everything, perhaps additional points in writing, if you would.    Some of the first points that we need to see in the theater right now to signal that there has been a turn. Clearly nature hates a vacuum, and there is a vacuum right now there that ISIL is filling, and there is also the saying that, you know, if they are strong they have to be with you, and I think that is why you are seeing this growing support of ISIL, because they are strong and getting stronger right now.    What would indicate an initial tactical success within the theater of conflict that would show that the tide has turned--is turning that would hopefully lead and then indicate that we are on the road to achieving strategic success?    And then finally, if you could, long term, how do we defeat this radical, violent ideology? Because in many ways this is an ideological war as well as a violent military one.    So I understand I have asked a lot there, and if you can't get to everything I understand, but perhaps some additional thoughts in writing would be helpful, too.    General, should we start with you?    General Keane. Okay. Thank you.    Well, certainly in terms of some near-term tactical success that would indicate that we are beginning to turn the tide against ISIS is to capitalize on what we have already achieved in Iraq. We have stalled their offensive in Iraq largely through the use of air power. We have retaken some territory, some modest territory back in Baiji and also up in Sinjar in the north.    But what is coming next, and I think you are very much aware of is largely a counteroffensive military campaign to retake the major environs of Mosul, Tikrit, Fallujah, and part of Anbar Province, essentially fighting up the Tigris and Euphrates River Valleys is what we are really talking about here.    And that counteroffensive will be a major campaign and, if successful, clearly that will demonstrate that the tide has truly turned against ISIS. They will have to flee into Syria, which is their de facto capital now. It is where they maintain many of their--much of their resources. It is where their recruiting and training is taking place. And it will be a--continue to be something of a safe haven to them because there is--at least in the near term there is no ground force to act against them, although we will try to find--continue to find targets against them.    But that will send a huge message in terms of initial tactical success against ISIS. And I think it would have some impact, don't know for certain, but my judgment tells me it would begin to have some impact on whether people want to join this organization or not when they see it largely beginning to be destroyed right before their eyes.    So I think that is very important to us. And as we have said many times here, and I think everybody sitting at the table here is in agreement, that is an immediate military strategy, but we need a longer-term strategy that deals with the ideology or we will be dealing with ISIS-like enemies again. And that truly should be avoided.    We have an incredible lexicon of learning experience here after--you know, it will be 14 years this September of dealing with this radical Islamic issue and we still, still, as we sit here now, do not have a comprehensive strategy to deal with it.    Undermining their ideology in a global alliance is what I suggested, and I think that is largely dealing with the people in the region who have to do this because the ideology is tied to the Islamic religion. But it also, from a practical sense, an alliance like that would share intelligence, it would share training, it would share technology so that people in it are all benefitting from it.    And I don't think we would craft that strategy. I think we would bring that alliance together and the alliance would craft it. And the input we would get from the participating nations who are dealing with this would be very significant, in my judgment, in terms of how to approach it and what practical means are there to do it.    And I will stop right there so others have an opportunity to talk.</t>
   </si>
   <si>
@@ -458,9 +392,6 @@
   </si>
   <si>
     <t>412642</t>
-  </si>
-  <si>
-    <t>Brad Ashford</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ashford. Thank you. And I appreciate the opportunity to be the last questioner. But I thank you, Mr. Chairman.    I want to just make a few points. I also was in Afghanistan and Iraq with Congressman Moulton and Congresswoman Stefanik and Congressman Wilson. It was an extremely important trip. We went everywhere, pretty much, and these answers have been right in line with the thinking at least I come back with.    And it was very important to have Congressman Moulton there because of his work with General Petraeus. He was able to really zero in and--laser-like on the questions that--many of which have been asked today.    Let me just say, I absolutely agree with the panel, General Keane for sure, and that is that the number one goal here is to destroy ISIS and that we need to refresh, rewrite, do again, whatever it is, the resolution that is there.    We had several conversations--I did and I know Congressman Moulton did and others--with members of the military and leaders--King Abdullah and the prime minister in Iraq and so forth. And everyone said the same thing: We need to have a clear resolve.    I was on a C-130 and the navigator said, ``Congressman, do you think you can get a resolution?'' You know, and I said, ``Well, we will see if we can,'' but, I mean, it is clearly the case.    I have been struggling with, and I also would just say this: I absolutely reject the idea that somehow these Muslim Arab countries cannot, with our help, be successful. I think that is just not correct.    I know you are saying the opposite, but I, you know, hear that, and that it--and that we are an exceptional nation and that we are going to have to maybe play a role that maybe somewhat outweigh those of others. And also that the ideological work, which clearly every leader we talk to--King Abdullah was emphatic about the need to address, you know, sectarian education, to deal with economic development. And he did talk about a Syrian strategy, and it is a little more long-term.    Let me just ask this. I know in Nebraska, you know, what I get asked is, you know, ``Are we going to need boots on the ground,'' and I know you have answered this. My sense is that we haven't defined that yet, we don't know exactly what the assistance is going to be. We are in an assist role at the brigade level now and we have--intelligence support as well as our Air Force and Navy pilots, whatever.    I think you are right. I think we have to have a broader resolution, but boots on the ground does not necessarily mean a brigade, but if there is something going on in the field where Americans need to, I am sorry for the long question, need to get involved, that would--that is also boots on the ground, technically. They are on the ground.    So, General, could you--if you would?    General Keane. Well, let me just--well, first of all, I appreciate your comments and you going to the region like that. It is insightful listening to you.    We do create a false narrative here, and it is this, and rightfully so. We don't want to be involved in a protracted war like Iraq or Afghanistan, certainly. We all understand that. But also, nobody is talking about that here either.    So we get a choice between--we don't want to have boots on the ground that will lead us to a protracted war where hundreds of thousands of U.S. troops are involved. I don't know anybody that is making such a proposal or recommendation. Certainly nobody in the Pentagon, to be sure.    And I don't know anyone who is opposed to the President's strategy is suggesting such a thing either. But we are suggesting what is reasonable. And it is reasonable that the coalition lead and we help.    So we do need some boots on the ground to make them more effective, and I think that is reasonable. So what are we really arguing over here? We are arguing over scale.    The present policy is nothing below brigade level. I am saying you got to get down to battalion level where the fighting is going on. And maybe we will eventually get there because as we begin to do this General Austin and his team will want the same thing. And then we need Apache helicopters, and AC-130 gunships, and et cetera, et cetera.    This is modest improvement, in my judgment, that gets you an exponential better result.    Now, let me throw something out that maybe you would disagree with. If this offensive fails, we try it and it fails, do we wring our hands and say, ``Okay, we are going to come back next year with the same force, with more boots on the ground, better-trained force and we will give it a try in 2016,'' or, if this is truly in our national interest, maybe a reasonable alternative is to have an Arab coalition force that the United States is part of form in Kuwait and we put that force on the ground, which would mean some brigade combat teams to do that.    Is that something we should do now? Absolutely not. We want the burden to be borne by the Iraqis.    But if it is failure and we can't seem to get there, should that be an alternative that we should at least consider? I think it is.</t>
@@ -871,11 +802,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -895,13 +824,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -921,13 +848,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -947,13 +872,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -973,13 +896,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1001,11 +922,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1027,11 +946,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1053,11 +970,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1077,13 +992,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1103,13 +1016,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1129,13 +1040,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1155,13 +1064,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1181,13 +1088,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1207,13 +1112,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1233,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
         <v>29</v>
-      </c>
-      <c r="H16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1259,13 +1160,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1285,13 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1311,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1337,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1363,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1389,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1415,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1441,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1467,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1493,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1519,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1545,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1571,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1597,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1623,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1649,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1675,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1701,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1727,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1753,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1779,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1805,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1831,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
         <v>56</v>
-      </c>
-      <c r="H39" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1857,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1883,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1909,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
-      </c>
-      <c r="G42" t="s">
-        <v>69</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1935,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1961,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" t="s">
-        <v>69</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1987,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2013,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" t="s">
-        <v>69</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2039,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>75</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2065,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>75</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2091,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>78</v>
-      </c>
-      <c r="G49" t="s">
-        <v>79</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2117,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
-      </c>
-      <c r="G50" t="s">
-        <v>79</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2143,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>82</v>
-      </c>
-      <c r="G51" t="s">
-        <v>83</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2169,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>82</v>
-      </c>
-      <c r="G52" t="s">
-        <v>83</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2195,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>82</v>
-      </c>
-      <c r="G53" t="s">
-        <v>83</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2221,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
-      </c>
-      <c r="G54" t="s">
-        <v>83</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2247,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>88</v>
-      </c>
-      <c r="G55" t="s">
-        <v>89</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2273,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>88</v>
-      </c>
-      <c r="G56" t="s">
-        <v>89</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2299,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>88</v>
-      </c>
-      <c r="G57" t="s">
-        <v>89</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2325,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>93</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2351,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2377,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>93</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2403,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2429,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>93</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2455,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2481,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>93</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2507,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>101</v>
-      </c>
-      <c r="G65" t="s">
-        <v>102</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2533,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>101</v>
-      </c>
-      <c r="G66" t="s">
-        <v>102</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2559,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>101</v>
-      </c>
-      <c r="G67" t="s">
-        <v>102</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2585,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
-      </c>
-      <c r="G68" t="s">
-        <v>102</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2611,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>101</v>
-      </c>
-      <c r="G69" t="s">
-        <v>102</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2637,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>108</v>
-      </c>
-      <c r="G70" t="s">
-        <v>109</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2663,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>108</v>
-      </c>
-      <c r="G71" t="s">
-        <v>109</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2689,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2715,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>108</v>
-      </c>
-      <c r="G73" t="s">
-        <v>109</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2741,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>114</v>
-      </c>
-      <c r="G74" t="s">
-        <v>115</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2767,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2793,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>114</v>
-      </c>
-      <c r="G76" t="s">
-        <v>115</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2819,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>114</v>
-      </c>
-      <c r="G77" t="s">
-        <v>115</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2845,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>114</v>
-      </c>
-      <c r="G78" t="s">
-        <v>115</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2871,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>114</v>
-      </c>
-      <c r="G79" t="s">
-        <v>115</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2897,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>122</v>
-      </c>
-      <c r="G80" t="s">
-        <v>123</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2923,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>122</v>
-      </c>
-      <c r="G81" t="s">
-        <v>123</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2949,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>122</v>
-      </c>
-      <c r="G82" t="s">
-        <v>123</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2975,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3001,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>122</v>
-      </c>
-      <c r="G84" t="s">
-        <v>123</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3027,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>129</v>
-      </c>
-      <c r="G85" t="s">
-        <v>130</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3053,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>129</v>
-      </c>
-      <c r="G86" t="s">
-        <v>130</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3079,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>133</v>
-      </c>
-      <c r="G87" t="s">
-        <v>134</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3105,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3131,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>133</v>
-      </c>
-      <c r="G89" t="s">
-        <v>134</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3157,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3183,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>133</v>
-      </c>
-      <c r="G91" t="s">
-        <v>134</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3209,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3235,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3261,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>133</v>
-      </c>
-      <c r="G94" t="s">
-        <v>134</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3287,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>143</v>
-      </c>
-      <c r="G95" t="s">
-        <v>144</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3313,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>143</v>
-      </c>
-      <c r="G96" t="s">
-        <v>144</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3339,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>147</v>
-      </c>
-      <c r="G97" t="s">
-        <v>148</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3365,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>147</v>
-      </c>
-      <c r="G98" t="s">
-        <v>148</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3391,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3417,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94100.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,15 +55,27 @@
     <t>400379</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. I think it was really two topics for this morning's hearing. One is the basic details of the AUMF with regards to Syria and Iraq and ISIL, and it is a very, very difficult thing to do because Congress wants to strike the balance.    We do not want to give the President a blank check and take away any of our authority. On the other hand, we don't want to restrict the executive branch in a way that hampers his ability to carry out the mission. That, from a language standpoint, can be virtually impossible.    And I think the chairman mentioned some of the areas of tension there--the timeline. I think the timeline is fine, because, as the chairman mentioned, Congress can come back and reauthorize. It sort of makes sure that we stay as part of the process, that we don't let our constitutional authority slip.    The tougher questions are, you know, how do we define military engagement without simply giving the President the right to do whatever whenever. And I will get more into this in the strategy session, but I, for one, think that it would be a mistake strategically to excessively rely on U.S. military force to try and solve this problem.    So I am looking for ways to limit that, to make sure that we don't have an executive that thinks that the military is the solution to this problem, because we should all keep in mind, whatever President Obama's personal position on this is, this AUMF would carry over to another President, which we can't be sure of. So I think those limitations are important, but difficult to articulate, which brings me to the real issue here today, which I think is the broader strategy.    What is the broader strategy? I think it can be fairly simply defined in the sense that we need to get to the point where the Muslim world rejects this type of violent extremism.    And I think one of the things that makes the strategy so difficult is it is a moving target. Back in, you know, 9/11 it was all about Al Qaeda and Al Qaeda senior leadership in Afghanistan, but the ideology is so much broader than that, as everybody here knows. It crops up in all manner of different places, from al-Shabaab to Boko Haram to Ansar al-Sharia.    It is an ideology that is becoming far too deeply rooted in that part of the world. How do we stop it?    Well, the short answer is we don't stop it, because the most dependable part of the message that Al Qaeda has is to basically say that they are defending the Muslim world against Western aggression. The last thing in the world we want is either, you know, a whole bunch of U.S. troops to show up to try to fix the problem, or just as bad, you know, a whole bunch of U.S. policymakers going over there and telling Muslim countries and Muslim governments how they should conduct themselves. They are not going to be responsive to that.    This is a problem that has to be solved internally by these countries. And the real strategic challenge for us here is, how can we help without making the problem worse?    It is a very delicate balance, and I would be very interested in hearing from the three of you on how we can engage in that, because this is an ideological struggle. This isn't about defeating AQAP [Al Qaeda in the Arabian Peninsula] or defeating Al Qaeda senior leadership, or even primarily about defeating ISIL. It is about stopping this just horrific ideology that has spread to too many parts of the Muslim world.    How do we stop it? How do we get that to be turned around? Because the truth is the overwhelming majority of the Muslim world rejects this ideology and rejects this strategy.    And yet, it marches on. How do we work with that to change that?    And then the final key piece of this is--that makes it very difficult to develop a strategy, is we keep tripping over another aspect of conflict in that world, and that is the Shia-Sunni divide.    You know, we may well be in there fighting ISIL, but if ISIL is fighting Shia, as they were in Iraq, and the main reason they were so successful in Iraq is because the Sunni Iraqis looked at Baghdad and said, ``That is not my government. That is a government that is sectarian, that is protecting Shia, that is doing nothing for us.'' So they basically sided with ISIL not so much because they loved ISIL's ideology, but because they found it preferable to Shia rule.    If somehow, some way, Saudi Arabia and Iran could find a way to peacefully coexist tomorrow, a huge chunk of this problem would go away. Now, that is obviously easier said than done, but it is part of the equation is figuring out this--the Shia-Sunni split.    So I think part of the reason people are confounded sometimes on the strategy level is because this is a moving target with lots of complicated pieces. It defies a two-sentence strategy.    And in fact, I don't think we would be well served by coming up with that two-sentence strategy. It is a dynamic problem. We have to be flexible in terms of how we respond to it.    But one piece of it is, with the U.S. engaged militarily against ISIL, as I think it should be, Congress should play its role. We should authorize that use of military force within whatever parameters we as a body decide.    With that, I yield back, and I look forward to the testimony and the questions.    The Chairman. Thank the gentleman.    I ask unanimous consent that a letter that Mr. Smith and I received from retired General James Mattis, former CENTCOM [Central Command] commander, on the AUMF be made part of the record.    [The information referred to can be found in the Appendix on page 99.]    The Chairman. Without objection, so ordered.    And without objection, each of your written statements will be made part of our record, as well.    Let me welcome our witnesses. We are very fortunate today to have retired General Jack Keane, former Vice Chief of staff for the U.S. Army; Robert M. Chesney, Associate Dean for academic affairs and Charles I. Francis professor of law at the University of Texas School of Law, an outstanding institution, I would add; Benjamin Wittes, senior fellow of government studies at Brookings Institution.    And, as many of you all know, Mr. Chesney and Mr. Wittes are both associated also with the Lawfare Blog, which is widely read on these constitutional national security issues.    So thank you all for being here.    General Keane, the floor is yours.    General Keane. Chairman Thornberry, Ranking Minority Smith, members of the committee, thank you for inviting me to testify today on the President's request for authorization of the use of military force. I am honored to be here again and to share the panel with my distinguished colleagues.    I have been testifying here for 15 years before this committee, and I just want to tell you once again how much I appreciate the support that you provide to our Armed Forces through all these years and what you are doing currently. I have always appreciated your serious and thoughtful approach to the Nation's business regardless of who has been the majority in this committee.    Please reference the map that I provided at the end of my testimony when I discuss the enemy and its geography. It was prepared by the Institute for the Study of War where I am the chairman. This was a part of a recent intelligence summary and is useful to understand how ISIS looks at the world.    My remarks will be brief, highlighting the essential observations only, permitting the focus to be your questions.    In principle I agree with a President who desires to use military force beyond a short-term contingency, requests an AUMF from the Congress. The current AUMFs, 2001 and 2002, which are obviously still in use, are, in their design, good documents in that it is clear why military force is being authorized and provides latitude for the President to determine how to use that force.    Indeed, an argument can be made that the President's current AUMF request is unnecessary in that the previous AUMF provides sufficient authorization for the use of force against ISIS. Nonetheless, I do believe it is better public policy for a new AUMF based on the reality that ISIS is a different threat in terms of its scale, mode of operation, location, and near-term intent.    As to the President's current AUMF request, I would like to make a few observations.    The strategy: Strategy is how the military force is used. This is the President's lane, along with his senior military commanders.    As much as I and some Members of Congress are critical of the administration for not having a comprehensive strategy to defeat radical Islam nor an adequate strategy to defeat ISIS, the AUMF is not the appropriate document for that expression. A President needs maximum flexibility to adapt to the enemy and the battlefield environment, which at times may demand a change in strategy.    The enemy: The enemy is ISIS, and the proposed AUMF describes it as ``ISIS and associates.''    ISIS has claimed contractual agreements and a written plan approved by ISIS leader Abu Bakr al-Baghdadi to form satellites in Libya, Egyptian Sinai, Afghanistan, and also Algeria, Saudi Arabia, and Yemen. Some of these affiliations are likely aspirational, to be sure, but ISIS is exporting military capability to make affiliates in Sinai and Libya stronger. All that said, defeating ISIS does not mean that U.S. forces are needed to defeat ISIS satellites.    The geography: Core ISIS is principally located in Iraq and Syria, but it covets territory in a broader region, including Lebanon, Saudi Arabia, Jordan, Israel, and lands that are part of historic caliphates, like the Caucasus. As such, there should be no geographical limitation in the AUMF.    The time constraint: It makes no sense to me to tell our allies and the enemy that we are uncertain of this commitment of force by our unwillingness to extend it beyond 3 years. Congress has the authority to provide continuous assessments through its oversight committees, which is far more appropriate than a 3-year sunset.    The ground force constraint: ISIS cannot be defeated in Iraq and Syria without a decisive ground force victory. There is no ground force in Syria, and no one knows if the Iraq ground force can defeat ISIS.    Why put limits on the use of a ground force when it is widely recognized as the only means to defeat ISIS? Indeed, it may be necessary for a coalition ground force, with the United States likely in the lead, to ultimately defeat ISIS. The ground force constraint should be removed from the AUMF if the true goal is to defeat ISIS.    In conclusion, the proposed AUMF is not an acceptable document. The time and ground force constraint must be removed. This President as well as our next President deserves latitude in the use of military force.    Additionally, how to use the military force, or strategy, is not an appropriate topic for this document, as I previously stated. But it is essential for the Congress to provide oversight and, in so doing, understand the feasibility of the strategy actually working.    I believe it is a matter of conscience to only support an AUMF if there is confidence that the strategy our troops execute will indeed succeed in defeating ISIS.    Thank you, and I look forward to your questions.    [The prepared statement of General Keane can be found in the Appendix on page 55.]    The Chairman. Thank you.    Professor Chesney.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Chesney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Chesney. Chairman Thornberry, Ranking Member Smith, and members of the committee, thank you very much for the opportunity to be here today. And I associate myself with General Keane's remarks about the tremendous history of this committee and the way it conducts its business.    I would like to make six points this morning.    First, the draft AUMF lacks a stated purpose in its operative sections. This is in contrast, for example, to the 2001 AUMF, and it is potentially significant.    To be sure, the question of purpose is for policymakers to decide ultimately, not lawyers. But the lawyers, in drafting an AUMF, need to know what the purpose is in order to make sure their work product is suited to accomplishing the mission.    And the public needs to know the purpose, as well. And so, as you improve upon the draft, I hope you will insist upon a clear statement of purpose in it.    Second, the draft's attempt to forbid ``enduring offensive ground combat operations'' is a grossly indeterminate phrase on its face and it should be dropped. Notwithstanding examples given by the White House in its transmittal letter accompanying the draft, the language inevitably will cast a shadow of uncertainty over commanders' operational decisions.    The statement by Secretary Kerry this past Tuesday explaining a bit about what it means in his understanding, referring to overnight embedding being okay but weeks upon weeks of some form of ground presence not being okay, I think underscores rather than assuages this concern. Simply put, commanders should not be left to guess where the boundaries lie.    Third, at no point in American history has Congress ever simultaneously authorized the use of force to destroy an enemy militarily while at the same time purporting to forbid the Commander in Chief from using ground forces towards that end.    In fairness, there have been several authorizations in our history that have been narrow in various ways. But in all such cases, the objective was much narrower than the military destruction of the enemy. Instead, these were cases in which the objective involved important but limited things, such as ending piracy against our shipping or participation in a peacekeeping operation.    Of course, if the actual objective with respect to ISIL is not its military destruction, but instead something relatively more narrow yet still important, then the analogy to past narrow authorizations may work much better. But this simply underscores my earlier point about the need for clarity regarding the purpose of the AUMF and our mission.    All that said, I can't say that Congress would lack the authority to enact such a limitation if it truly wishes to do so. I am simply pointing out that it would be unprecedented in a particular way, and it is certainly closer to the constitutional border line than things we have seen in the past.    Fourth, I want to share my thoughts on what we usually call sunsets, although I am beginning to think that we should get away from the sunset language because of the connotation it has for many people that it suggests that it is predetermined that there won't actually be a renewal. Perhaps it is better to talk about them as renewal or forcing function provisions.    The idea, of course, is to create an occasion after a certain period of time when the authorization, if appropriate, will receive the fresh imprimatur of a Congress and a President acting on the most recent conditions. And in this respect I would just point out where we are with the 2001 AUMF, which, of course, is still a critical instrument; it supports our anti-Al Qaeda operations around the world, from Yemen, to Somalia, Pakistan, Afghanistan, and Iraq, as well.    It has been 13 years-plus since it was enacted, and the passage of time has led many to criticize it on the grounds that it has somehow become stale, that it has become attenuated as Al Qaeda has evolved. And it is a shame, I think, that we haven't had a past occasion where it has been clearly refreshed by a more recent Congress in order to avoid these kinds of problems, which create friction in the reliance upon the AUMF.    Now, it is true that it did partially get refreshed in the National Defense Authorization Act for Fiscal Year 2012, but that refreshment, unfortunately, was limited to reference to the detention authority and--rather than being a full refreshment. But the point is, the experience with the 2001 AUMF illustrates how there is something to be said in favor of being able to continue to operate under an AUMF if you ensure that Congress will, in fact, come back to it after a certain number of years.    I recognize, however, that you cannot create a sunset or renewal provision that signals to the enemy that we are starting off with one foot already out the door. And so, in thinking about how you strike the balance here, my conclusion is that the better way to go is not a 3-year but a 5-year sunset, which also has the virtue of not landing this particular renewal provision on the doorstep of a newly elected President who may still be getting fully acclimated into the office and getting personnel into place.    My next point is about the silence of the draft AUMF on matters of detention, which is rather striking, if you ask me. Another lesson of the past 13 years is that the silence of an AUMF on detention is itself a cause for great legal friction if and when the United States may decide that in addition to using lethal force against ISIL targets, heaven forbid we actually detain some in military custody for the duration of our conflict.    If and when we come to that point, we will regret, I think, not having said something in the AUMF clarifying detention authority. So at a minimum, I hope Congress will consider that issue.    Last, there is the question of whether all this is moot because the administration, though asking for this ISIL-specific AUMF, it does continue to assert that it has the authority to do what it is doing already under color of the 2001 AUMF, and possibly as well under Article 2 of the Constitution. I don't think it is entirely moot.    As a municial matter, the 2001 AUMF argument and the constitutional argument that have been the backdrop up to this point, up to this very moment, are not without their detractors. They are far from obviously correct arguments, and that, in itself, creates a lot of legal friction. In so far as we are putting our Armed Forces into harm's way, they deserve a clear legal endorsement for what they are doing from this body.    As to the particular constraints in the draft AUMF being moot, again, at one level, yes, as a lawyer I can explain to someone if they have the time and patience to listen to me as to why the constraints in the new AUMF, since they aren't present in the old one, don't really matter. But I think that, while true as a legal matter, it is different as a political and rhetorical matter, and the existence of these constraints in the new AUMF will cast a shadow back over the old one and create more legal friction. So for that reason alone I think this proposal really does have to be taken quite seriously.    So let me stop there. I thank you for your time and I look forward to your questions.    [The prepared statement of Mr. Chesney can be found in the Appendix on page 66.]    The Chairman. Thank you.    Mr. Wittes.</t>
   </si>
   <si>
+    <t>Wittes</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wittes. Thank you, Chairman Thornberry, Ranking Member Smith, and members of the committee, for inviting me to present my views on the President's proposed authorization for the use of military force against the Islamic State.    I want to advance, I am more modest than Bobby on this, I want to advance only two basic arguments today, and the first is that the administration's draft ISIL AUMF, while it is a significantly flawed document, is flawed in ways that are somewhat different from many of the criticisms being advanced against it. So I want to start by separating what, from my vantage point anyway, is the wheat from the chaff, and sort of dispensing with a number of the criticisms of the draft that are, to my judgment at least, meritless or having significantly less merit than their presence in the conversation.    So, many critics have worried that the draft AUMF would limit the President and his successor in prosecuting the war, and some in this regard, some have worried about the limitation on the use of ground forces; others have argued that the problem is chiefly the 3-year proposed sunset. I think both concerns are actually misplaced, at least as a legal matter, though Professor Chesney's point that they may have political--operate as political constraints is certainly a valid one.    I think it is misplaced as a legal matter for largely the same reason, which Professor Chesney just alluded to, which is that this authorization, at least as the administration proposes it, is not the President's only source of authority to use force. And so limitations in the authorization don't limit Presidential power to the extent that some other authority exists for the contemplated action.    The proposed authorization leaves in place untouched the 2001 AUMF, which the administration has construed quite broadly, which does--including to cover all of its operations today, and which doesn't contain a sunset provision. So the result is that you actually have these optical restraints that don't, in fact, do what they seem to say they are doing.    So, moreover, I think it is implausible, and both of my co-panelists have mentioned this, that the ground force limitation in the AUMF is, you know, quite what it seems to be even if it were the only source of authority, and the reason is the elasticity of the word ``enduring'' and ``offensive.'' And I think all--the resolution does not define either word.    And there is just a lot of room for elastic interpretation there, and I can't imagine that an administration that wanted to use ground forces in any significant way would not be able to either define them as not offensive or define them as something less than enduring.    A number of commentators have also complained that the draft resolution contains no hard geographic limitations that would contain it to Iraq and Syria. I think this is a--this criticism actually denigrates what is one of the virtues of the administration's AUMF.    ISIL is a fluid enemy. It is by no means likely to restrict its activities to Iraq and Syria. And, as General Keane points out, it is already developing relationships with countries elsewhere, with groups elsewhere that, you know, would be off limits if a hard geographical limit were--limitation were in the document and the document were legally operative.    I ask you to consider that if a similar geographic limitation had been inside the original 2001 AUMF we would never have been able to undertake, under that authorization, operations against AQAP, which have been so vital to American counterterrorism.    All that said, I do think the administration's draft has serious problems, which mostly have their roots in the proposal's breadth and failure to grapple with the relationship with the underlying 2001 AUMF. Now, as a lot of people have noted, the document, on its face, does not appear broad. It seems to have all these limitations.    But it is actually written very carefully to make the--create the impression of significant limitations without the reality. And the administration's lawyers have succeeded in this to a degree that they are being denounced for the breadth, for the restrictions in the proposal rather than developing anxiety about its actual breadth.    In fact, the real problem is that, despite the appearance of accepting restraint, the document contains virtually no meaningful restraints at all. And the reason for that is the failure to grapple with the underlying 2001 AUMF, which it leaves in place without any--I also have developed anxieties about the word ``sunset,'' but without any forcing mechanism for reconsideration.    So under the administration's proposal, at least as a legal matter, the President would have all the authority he has today, including all the authority to fight ISIL under the 2001 AUMF. And in addition to that, he would also be granted 3 years of even broader authority to target ISIL and its associated forces. And by the way, the draft defines ``associated forces'' quite broadly.    Thus, the limitations on ground forces is entirely meaningless, since the 2001 AUMF remains in place. This doesn't concern me particularly because I don't actually favor a ground force limitation, but for those who do favor a ground force limitation, I think you should be particularly concerned by one that is there in appearance but not in reality.    The 3-year sunset is also largely meaningless because the 2001 AUMF doesn't sunset. And the reporting requirements, which are quite anemic on their own terms, are similarly empty, and I think that should be a particular concern to this committee.    Second point I want to advance is that there is an alternative to this approach. In November of last year my co-panelist Robert Chesney, Jack Goldsmith, Matt Waxman, and I jointly drafted a possible AUMF, which we sort of imagined as a way of sort of kick-starting a discussion on the subject.    It did, and actually a lot of consensus developed between our author group and a group over at the Just Security website about the components of a new AUMF. Unlike the President's recent proposal, our proposal aimed to integrate authorization for the fight against ISIL into authorization for the larger conflict, and we tried to supplant the existing AUMF with a more modern document to respond to exactly the concerns that Professor Chesney just laid out.    So I want to identify a few aspects of this proposal that are relevant, in light of the criticisms that the President's AUMF has received both from the right, left, and center.    So first, unlike the President's draft, our proposal would subsume the current AUMF, which covers, as the administration and the courts interpreted, Al Qaeda, the Taliban, and associated forces, and it would then repeal the underlying document. The result is that there would be a single authorization for fighting Al Qaeda, the Taliban, ISIL, and all of their associates.    Second, because there would be no duplication in the authorization, the proposal's sunset provision would actually means something. It would actually serve the forcing function that the chairman was referring to.    Third, while the draft does not contain specific geographic limitations, as the President's does, like the President's, it does not contain that, but it does authorize force only where it could be used consist with applicable international law concerning sovereignty and the use of force, thus giving some territorial guidance. It would allow the sort of things we did with Al Qaeda in the Arabian Peninsula; it would not allow, say, the use of force or authorize the use of force, you know, in France.    And fourth, the proposal contains significantly more robust reporting requirements than does the administration's draft, and I would urge you, even if you are proceeding off of the administration's draft, to look at the disparity between what we would have asked them to report and what they want to have reported. I think that difference alone is very substantial.    So look, I have no doubt that our proposal could stand significant improvement in any number of areas, and there are aspects of it, actually looking back at it 5 months after we wrote it, that I would change. But our--I think our draft offers an approach that is far less susceptible than the administration's draft to the concerns that many scholars across the political spectrum have raised.    And as this body considers how to authorize the conflict against ISIL and how--and really importantly, how that authorization should interact with the existing AUMF, our proposal may offer an alternative way forward that might attract a broader swath of support.    So thank you very much. Look forward to taking any questions.    [The prepared statement of Mr. Wittes can be found in the Appendix on page 84.]    The Chairman. Thank you.    And I appreciate, again, testimony from each of you.    I guess I would like to have each of you comment on kind of a basic question, which is how important do you think it is for Congress to authorize a use of military force? I am not really talking about whether the 2001 covers ISIL, that is--although that is an interesting question I would hope we get to today.    What I am talking about is some people argue that Article 2 means the President can do whatever he needs to do to protect the country, and terrorism is a threat so he can take action whenever and however he wants to. On a more practical level, some folks say, ``He has been bombing for 6 months. Why do you need to act now? You know, just don't worry about it. Let it go on.''    So, Mr. Wittes, starting with you, I would like to hear your views about the constitutional and legal importance of Congress acting to authorize a President's use of military force.    And then, General Keane, by the time we get back to you I would like to hear how that affects our troops, how they see Congress acting or not acting to authorize the missions on which the Commander in Chief sends them.    So if we can just go backwards up the line.    Mr. Wittes.</t>
   </si>
   <si>
@@ -82,6 +97,12 @@
     <t>400209</t>
   </si>
   <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jones. Mr. Chairman, thank you very much.    And I thank the panelists for being here today to talk about the President's AUMF.    And I would like to make a couple points, and then probably, Dean Chesney, I am going to come back to you.    You know, the fact is it is so vague, and y'all have already commented on that, and whether it should be expanded beyond ISIL, as to what groups could be a threat, what groups need to be fought and defeated. Let me make that point.    Also, the issue of sunset, whether it should be sunset or not. I was in the Congress--I have been here 20 years--I was here at9/11. I was part of this committee at that time. I remember the anxiety of the American people--and also those of us in Congress, by the way, that we had to do something, we had to give President Bush the authority to fight this enemy that had done so much damage to America. So we passed the AUMF for 2001 and then a year or two later we passed another AUMF for Iraq.    Well, I bring that up because we are still there. If there had been a sunset with either of the two, do you think, Dean, that President Obama would have thought he had the authority to bomb Libya?    Bob Gates, the Secretary of Defense, was sitting exactly where you are when my good friend Randy Forbes, who has now left the committee for another meeting, asked Secretary Gates, ``If Libya had dropped a bomb on New York City, would that be an act of war?'' He never answered. He never answered.    So the point is that Mr. Obama did not come to Congress in any way to say to the Congress, this committee or any other committee, that we have got a problem with Gaddafi and Libya and we are going to attack. That is what has got the American people concerned not just about Mr. Obama, but any President that has any type of authority that he or she can turn their nose up to the Constitution.    And we are complicit, as a Congress, if we give them such authority that there are no limits to that authority, and actually, there are no end points to the strategy that an administration--forget whether it is Obama administration or another administration--that we become complicit, as Members of Congress who uphold our hands and say, ``We will support the Constitution of the United States,'' and we know the requirement of the Constitution as it--excuse me--as it reflects to war powers.    So my question to you is that if these 2001 and 2002 had had a sunset, do you think that Mr. Obama would have felt that he could bypass Congress and bomb a foreign country? Because my belief is, as a non-attorney, that if he had done that then we get into international law, that I don't think any nation, as great as America is, should have the power to just decide to go in and bomb another country because we don't like their leadership.    And so, therefore, I think the AUMF needs to be vetted very carefully as we move forward. But I want to ask you--if you got a minute, give it to you, I want to ask you that if we had sunsetted those two AUMFs, do you think Mr. Obama would have felt he had the justification to bomb Libya?</t>
   </si>
   <si>
@@ -91,6 +112,12 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman.    And thank you all very much for being here, for your service, particularly General Keane, and for your insights.    I want to actually turn to something that maybe we have a little more control over, and that is the reporting mechanism.    And, Mr. Wittes, you talked about that.    General Keane, you yourself mentioned in your remarks or in the article that we were 3 years into a failing strategy with the war in Iraq, and you talked about the adaptiveness, and I appreciate that, in terms of our military.    But I guess I am looking for what language you think is appropriate in terms of the reporting mechanism to the Congress? Because there are a few of us who were here at that time and, I don't know, how do you think we did?    How did we do in terms of that oversight role? Because if we were 3 years into a failing strategy, had difficulty asking the questions, and, frankly, a great deal of difficulty getting answers, what is it that we need to do now?</t>
   </si>
   <si>
@@ -112,6 +139,12 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman.    And thank each of you for being here today.    And, General Keane, I want to thank you for your service on cable news. It is always really so solid, the information you provide; it is so meaningful, and so important to the American people.    It is particularly meaningful to me. I have four sons currently serving in the military of the United States, and every time I see you on the air it is a reminder to me of how capable and competent the American military is. And so I want to thank you for that.    I also would like your input on what suggestions do you have for the AUMF, and what language should there be for the flexibility for our President to be able to lead us to victory?    General Keane. Well, I think the language in the--that we found in the other two AMFs--AUMFs, excuse me, where we are talking about using the appropriate and necessary force, a very short statement to that effect, really is appropriate.    As I stated in oral statement, I don't believe we need, nor should we have, a time constraint in it. Why cast any doubt about our resolve? Why do that?    This administration has a pattern of doing that in the past, as we recognized when the President I think rightfully made the commitment to escalate our forces in Afghanistan. In the same public policy statement he announced the termination of that force, as well. I think that is an unnecessary flag to our enemy about our lack of commitment, and I also think it does much the same with our allies.    So I would avoid that for those reasons. And I do believe that, given the authorities the Congress has and the oversight responsibilities, you can get at this another way.    I would agree with Mr. Chesney that if you kick this thing down the road a little bit, a few more years, then some of that does go away, in terms of the lack of resolve and commitment. But 3 years I think is unacceptable.    The ground force constraint I think has to be absolutely removed because of what we are dealing with. We are facing an enemy that, in the front of us, we have to deal with largely militarily. At the same time we are trying to counter their finances, undermine their ideology, but this right now it is a central military problem.    And we already know that the only way that we can defeat this force is with effective ground operations. So anything in this document that would cast doubt on our ability to conduct decisive and effective ground force operations seems to me to be misguided and it should not be in the document.    I would bow to my--Mr. Wittes on my left knows far more about the intricacies of the legality of this than I do, but I--and the fact that the President would still have the authority even though the appearance of it would be that he does not. I would not want that confusion. I don't want our troops to have that kind of confusion. It doesn't make any sense to me.    And those are the essential issues for me. I am for a President having the latitude to conduct military operations without these constraints on it.</t>
   </si>
   <si>
@@ -127,6 +160,12 @@
     <t>412382</t>
   </si>
   <si>
+    <t>Garamendi</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Garamendi. Thank you very much, Mr. Chairman. And a big thank you to you for conducting this hearing and, I understand, another hearing coming up next week or thereafter on the military side of this, what might be necessary.    We are doing exactly what we should be doing as Members of Congress. In my view it is absolutely essential for Congress to act. To use the 2001 or the 2002 AUMF as a reason for a new war, actually, a war that was declared over in Iraq is, in my estimation, just dead wrong.    And we have a responsibility. We represent the American people, 535 of us plus one, the President, and we have the obligation to deal with this. Not easy. Easier to duck. But it is our responsibility.    With regard to the 2001 AUMF still being in place and the sunset, the 2001 AUMF proves the reason for a sunset; an unending war can't continue it. We have got to deal with this, and the sunset seems to me to be absolutely appropriate in that.    And 3 years requires that the next Presidential election be about war. And that is a really good thing for the United States to debate and to discuss.    With regard to the issue of, and this is coming to a question, the issue of limitations of the use of boots on the ground, which the President says he wants to limit but then writes in such a way as probably not limiting, is there any debate between our two esteemed lawyers and general about the ability of Congress to use the purse to limit the use of ground troops, for example, no money for infantry brigades, Army brigades, artillery, and et cetera, but perhaps money for special forces and the like? Is there any doubt about the ability of Congress to limit using the purse?</t>
   </si>
   <si>
@@ -145,6 +184,9 @@
     <t>412275</t>
   </si>
   <si>
+    <t>Fleming</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you, Mr. Chairman.    Thank you, gentlemen, for being here today.    General Keane, one of my primary concerns above what is contained within the AUMF is the fact that I still don't know a clear and coherent strategy upon which we will use the AUMF. The President has not outlined--in fact, at one point he even said we didn't have a strategy, so I have a deep concern about whatever the AUMF ends up being, what is going to be the strategy that goes along with that.    I would love to hear what you have to say about that.    General Keane. Well, you know, I agree with you. And it is pretty frustrating about what is being said and also what is not being said.    I think, clearly, just dealing with ISIS and dealing with Iraq and Syria, what is the strategy to degrade and destroy, defeat is a much better word than destroy, ISIS? We are saying to ourselves that we have an Iraq strategy first, which is to reclaim the territory that is lost.    To do that, we know we need ground forces to do it. The air power has largely stalled, effective air power has largely stalled ISIS offensive campaigns, no longer really taking territory in any large way in Iraq.    It has taken territory in Syria since the bombing campaign began. That is another story.    We are depending on local indigenous forces to be that ground force, but then we also know that we have problems with this force, that it is not a homogeneous force. It is Peshmerga, it is Shia militia, it is Iraqi Security Forces, it is Sunni tribes.    And we also know that we want air power to be effective, but we are not going to put any boots on the ground to help that force be more effective. My simple way of dealing with this: If you think you have a weak hand, do what you can to strengthen that hand.    What we want to avoid doing is what the Congressman from California would like to constrain the President from doing. We all want to avoid using combat brigades to go deal with this. We want these people, the Iraqis, to bear the burden of this, not us, on the ground. You won't get anybody in the military signing up for sending large combat brigades in there.    But that strategy, I think, is flawed because we are not providing enough assistance to this local indigenous force that is weak, and by that I mean is special forces who can go with them on the ground, forward air controllers to help them, significant amounts of Apache helicopters, AC-130 gunships, JSOC [Joint Special Operations Command] direct action forces to go kill leaders like we do in Iraq and Afghanistan very successfully, on the ground, I may say. And these are questions I think that you can ask the military leaders when they come forward.    In Syria, sir, there is no ground force.</t>
   </si>
   <si>
@@ -160,6 +202,12 @@
     <t>412533</t>
   </si>
   <si>
+    <t>Duckworth</t>
+  </si>
+  <si>
+    <t>Tammy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman.    Gentlemen, I thank you for being here today.    And, of course, thank you, Mr. Chairman, for bringing this hearing--this issue to our hearing.    I am encouraged by the fact that we are finally having this debate because I think Congress failed last fall to not only have an honest discussion about our overall strategy to defeat ISIS, but we also failed to discuss the underpinning authorities for that strategy. I think regardless of where you come down on this issue, it is important that we have the discussion, so I am glad that we are here.    I want to first off just say that the paramount importance is to make sure that our troops who are sent into harm's way know that all of America is behind them. When they go to battle and they go to fight and they go to potentially lay down their lives for this Nation, they need to know that we are behind them and that they--that we will be there to help provide them with the resources that they need to do the job that we ask them to do.    That said, I think the AUMF is critically important. I actually voted against the repeal of both the 2001 and 2002 AUMFs in the past when they came up on the floor as amendments to NDAA [National Defense Authorization Act] and defense appropriations not because I fully support them, but because there was no alternative at the time.    Now that we are looking at this new alternative, I like the fact--the proposal that this new AUMF should subsume and we should get rid of the 2001, and I agree with that.    What I do want to do is to drill down on the geographic boundaries portion of it, and specifically the Brookings Institution's proposal to, instead of having a geographic boundary, a legal boundary, one that is in conjunction with international laws for the use of force and sovereignty.    So could you--is it Wittes or Wittes?</t>
   </si>
   <si>
@@ -196,6 +244,12 @@
     <t>400411</t>
   </si>
   <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Turner. Thank you, Mr. Chairman.    Gentlemen, one of the things that we are being asked to do is to repeal the 2002 authorization for the use of military force. As you know, the 2002 AUMF with--concerning Iraq found that Iraq poses a continuing threat to the national security of the United States and international peace and security in the Persian Gulf region, and because members of Al Qaeda are known to be in Iraq.    I would like your opinion, because it would seem to me that even though the Saddam Hussein regime has been removed from power, that the objectives in the 2002 resolution remain: protecting both United States and Iraqi minority groups as well as ending terrorism in Iraq. All of those objectives are still in doubt, and therefore it does seem that there may be a compelling legal rationale for keeping the 2002 AUMF in force since the President obviously is finding that he has very broad authority under it currently.    So do you believe that leaving the 2002 AUMF concerning Iraq in place would be a conflict, and would you recommend removing the text that repeals the 2002 AUMF? Any thoughts?</t>
   </si>
   <si>
@@ -211,6 +265,9 @@
     <t xml:space="preserve">    Mr. Turner. Excellent. Thank you.    Thank you, Mr. Chairman.    The Chairman. Thank you.    Mr. O'Rourke.</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman. I wanted to start by thanking you and the ranking member for holding this hearing.    I can think of no more important decision that we will make as Members of Congress than whether or not to send our Armed Forces into harm's way, and I appreciate the fact that we have got the subject matter experts before us to help us make a more informed decision. I hope that we will have more hearings on this subject. It certainly warrants it.    And I also want to agree with the fundamental questions asked by the chairman, you know, what is our strategy? And the ranking member, how do we help out without making the problem worse? I think those are the questions of the day, and I realize very difficult to answer.    General Keane, I couldn't help but agree with you when you said that we shouldn't put limitations on our military if we are asking them to go in and do a very difficult job, if we want to acknowledge that there are no ground forces today in Syria that we can rely on. It is very questionable whether there are ground forces in Iraq that we can rely on that are not our own.    And so if we are going to go in, and if we want to win, then we need to do whatever is necessary to do that.    But I also think about the service members at Fort Bliss, whom I have the honor of representing, the veterans who have come back from wars throughout our history, including the most recent engagements in the Middle East. And while I agree with Ms. Duckworth that they want to know that we have their back and that we support them, I think what they want to know even more than that is that we have a plan and we have a strategy before we send them into harm's way.    So I would like to ask you to do this, I don't know that in the 3 minutes remaining we can define what that strategy should look like. If you can, go for it.    But how about this: Can you define what winning looks like? Can you define the conditions that would be necessary in Iraq and Syria or vis-a-vis ISIS for us to conclude military operations?    And I will start with General Keane and then we can move to your left across the panel.    General Keane. Well, ISIL is a little different organization than Al Qaeda because owning territory, it provides them a legitimacy and it is part of their belief system. So you fundamentally, to defeat them, have to begin by taking their territory away from them.    They will largely stay and fight. We found that when we went into Afghanistan, where Al Qaeda was initially at post-9/11, when they were met with some sizeable force--not necessarily a decisive force--they ran into the mountains and hills of Pakistan. They fled to fight another day. This organization will not do that.    So what we must do is take the territory away from them which provides them their legitimacy. And by returning Iraq to its sovereignty, to its borders, that is a good thing and that is what winning looks like.    The same thing in taking the territory away from them in Syria.    That would not stop ISIS from conducting terrorist activities in those same countries from outside the country or from a small safe haven in it, or using terrorist activities in cyber terrorism, which they are also doing, in other satellite countries. But where core ISIS is, we must take the territory away that they own, and that begins to look like we are winning.    That doesn't mean ISIS goes away, because as the map I showed you, they have affiliates out there in satellites that they are trying to establish governance with and relationships with. But this is central to ISIS.    And let's face it: ISIS has quite an appeal in the world today, and why is that? Because they have the appearances of winning. They are standing up to the United States and powerful nations; they are humiliating these nations by how--the barbarism and butchery that they do on the Internet. And they have had some impact with citizens in other countries killing their fellow citizens, as well.    When you start to take this territory away from them, and you start to kill and capture them, and you find them in shackles, and they are moving into detention centers by the scores, this image, this attractiveness of ISIS begins to fade because now it is a losing organization. And it starts to impact on its ability to recruit people. Nobody wants to be a part of a losing, failing organization.</t>
   </si>
   <si>
@@ -220,6 +277,12 @@
     <t>412255</t>
   </si>
   <si>
+    <t>Wittman</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman.    General Keane, Mr. Chesney, Mr. Wittes, thanks so much for joining us today.    General Keane, I wanted to ask you, from your perspective, and examining all the issues around an authorization of the use of military force, what would be some of the questions that you would suggest that we ask of our military leaders, with all the conditions that have to be considered here: the controversy of timeframes, the extent of which--how we identify the adversary, how we go after them, what should the scope and breadth of that be? Give me your perspective on some of the aspects that we should get the military leaders' perspective on?    General Keane. Certainly. Well, first of all, I think you are bringing General Austin in here, CENTCOM commander. I have known him for years, worked with him, a very fine officer, and certainly with his depth of experience I think you are going to get all the answers you want, but here are a couple of suggestions.    Number one, we are so dependent on this indigenous force in Iraq, I mean, it is appropriate to find out--get an assessment of the quality of that force and its reliability. After all, we did see this Iraqi army, despite all the years of investment in it, painfully watched it collapse in the face of ISIS, which wasn't that much of an overwhelming force. The Iraqi army outnumbered ISIS somewhere in the neighborhood of eight-to-one, but yet it collapsed in the face of it.    So what has happened in the last year or so that changed that? This is crucial to our success. And what could we do, as the coalition, not just the United States, to help that force be better; not just in training, but advising it and also giving it military capability to assist in that force?    What kind of timeframe are we really talking about here? Is this sometime this year, as the media seems to be reporting, and also CENTCOM gave us an awful lot of information on that themselves, which I was a little surprised with, in terms of the qualitative approach and quantitative approach to the force itself. But that is an important issue.    In dealing with Syria itself; let me come back to Iraq.    One of the key dimensions in Iraq is clearly the Sunni tribes, and where are we in the growth and development of the Sunni tribes' willingness to participate under arms? And I know we are doing--we are conducting some assistance of them.    Most of them are reconcilable, and we know these leaders very well from our association with them. There are a few irreconcilables from the previous Saddam Hussein regime, and they are supporting ISIS; they always will. Where are we with that in--and the Abadi government's willingness to be politically inclusive with them?    Another issue deals with Shia militia itself. The Shia militia is a very strong force. The cleric Sistani asked for popular support for it.    It goes well close to 100,000-plus, maybe close to 200,000 volunteers who have thickened the Iraqi Security Forces. The best of the Shia militia forces are those that are backed by Iranians and have had a role in training them. What does this mean to us as we go forward in terms of the Shia militia's role in helping to reclaim territory?    Also, are we finally equipping the Peshmerga with what they need? They have been complaining to every one of you and to anybody that visits them that they still haven't got the equipment they need.    In Syria the real issue, as I have tried to point out, is the ground force itself. What will be the ground force that will eventually defeat ISIS in Syria? And I think if the answer is the Free Syrian Army, I think you need to push pretty hard on that, because it doesn't seem to be viable to me.    I believe it is an Arab coalition that will have to be put together. They will probably ask us to lead it, and I think it is likely we probably should. I don't think we could do that unless we shut down Assad's air power.    And I also believe that the administration doesn't want to do any of that. And even though Turkey, the UAE [United Arab Emirates], Saudi Arabia, and Jordan want the administration to do that, in other words, shut Assad's air power down so that finally we can start to do something against ISIS and you are not bombing the Free Syrian Army force every day. That is what he is doing.    I think the elephant in the room there, quite frankly, is the nuclear deal with Iran, that the administration does not want to push on Assad because of the relationship with Iran. Iran propped that regime up; it rescued that regime from failure.    And if we pushed on it I think it would jeopardize the pending potential deal on nuclear weapons, which I think the administration believes is its number one priority. Probably wouldn't say that, but I believe it is.    I don't think General Austin will get much involved in that because that is a policy question above his head, but certainly these other things he would be prepared to answer, and I think you will get some very straight answers from him.</t>
   </si>
   <si>
@@ -229,6 +292,12 @@
     <t>412606</t>
   </si>
   <si>
+    <t>Norcross</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Norcross. Thank you, Chairman. Certainly appreciate it.    And, you know, one of the duties that we have is to make decisions on these very difficult items, and it weighs heavily certainly on my mind and those of the people that I represent.    Certainly I have to agree with the witnesses when they talk about three reasons that we are even considering this: obviously the moral reason, which I agree with; the age and scope of the old AUMF; and certainly, it is our job, which actually brings me to the point of the question.    King Abdullah was here 2, 3 weeks ago, and it was the day that the video was released of his pilot being burned to death in a cage; that barbaric video. He stated, ``This is our war,'' indicating that he and his partners in the Gulf. It can't be America against them. ``We need your help, but it is our war.''    And the other item which really resonates with me: I have been fighting this for 1,400 years, and brings me back to what Mr. Smith had said is beating down the mole. So we heard the question earlier talking about what is a win, and certainly the nuts and bolts of a win can be debated. But I think those who we are targeting, it is not a team sport that they win and lose; it is a way of life.    And I think we have heard ample evidence of that, that they are willing to give everything up because they believe in this at a core level. Whether we think it is insane or not is immaterial.    But you had talked rather, General, directly against a timeframe. Couldn't the same argument be spoken about the timeframe is, each year we authorize a budget, and in many ways that is a timeframe.    I think it is the responsibility of the next President and next Congress to review what we are doing. And I don't think anybody in this room or in America doubts the resolve of the American people to back up our troops.    So I want to get your opinion on where we are going with the timeframe again, given that at any point they could point to the fact that we wouldn't fund this or the budget and appropriations. How is that different than the resolve of a 2- or a 3-year AUMF?    General Keane. Well, in my mind, I mean, the budget is an annual process, and that is quite different even though there are plenty of authorities in a budget, obviously, to fund military operations. But that is quite different from the AUMF, where you are authorizing military force for a specific purpose and then tying a timeframe to that authorization.    I am suggesting that why do that when you have plenty of authority yourselves in your normal oversight of the Department of Defense and the executive branch to make certain that you understand what is taking place and the progress that is taking place and you have the power of the purse in any event, which is your ultimate authority? I think it sends a message of a lack of resolve.    You know as well as I do that our friends in the region, and if you are speaking to them you know what I am about to say, that they have been questioning America's resolve in this region for some time now.</t>
   </si>
   <si>
@@ -244,6 +313,12 @@
     <t>400141</t>
   </si>
   <si>
+    <t>Franks</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Franks. Well, thank you, Mr. Chairman.    And thank all of you for being here.    General Keane, I don't ever want to let a general stand before this committee without expressing gratitude for your service and for just your commitment to protect human freedom, especially my little babies. I appreciate it.    I was especially moved by your comments related to the resolve that I think the enemy tries to consider as much as anything else. And the administration's AUMF mentions using American forces, ``in support of partners on the ground and local forces to combat ISIS.''    One of my concerns is that there is an ancillary effect that it might end up where we are even indirectly funding Shia militia proxies of Iran, and it might actually increase their standing in the world to the extent that it might actually increase their opportunity to one day gain a nuclear weapons capability. And do you think that the AUMF, as it stands now, opens us up to the potential of the ancillary effect of fighting alongside Iran?    General Keane. Well, clearly we cannot disguise the fact that there are Shia militia that is largely protecting Baghdad and also the shrines, the Shia shrines, north and south, that are present there, and some of them have been trained by the Iranians. And they also have been effective, and they will continue to be effective. So that reality is on the ground and it is not going to change.    That does not mean that when Iraq gets its total territory back and its sovereignty is returned to its borders that Iran is going to have a grip on Iraq that is totally dysfunctional. The Iraqis don't want that. Certainly Abadi wants no part of that.    He also did not turn down, his predecessor didn't turn down, when he asked for help, airplanes started arriving day one. And we put off help for a few months, if you will recall that. And he was not about to turn that help down from a practical matter.    When you look at it geopolitically, Iraq wants to stand on its own two feet. Iran will always have an influence there, given its neighbor and also given the fact that they have helped them here.    But I do think that the coalition that is coming together to help Iraq and to return its sovereignty, we will have a long-term strategic relationship with Iraq on a path that we had intended to do back in 2009, when we had driven this Al Qaeda in Iraq into their rat holes. So I think those opportunities are still there.    I don't think that the Shia militia backed by the Iranians forecloses on a strategic relationship with Iraq over the long term that makes sense to us in terms of a country that has wealth, an educated class of people, and is a force for stability in the region. Those opportunities are still there.</t>
   </si>
   <si>
@@ -253,6 +328,9 @@
     <t xml:space="preserve">    Mr. Franks. Thank you, sir.    The Chairman. Mr. Takai.</t>
   </si>
   <si>
+    <t>Takai</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takai. Thank you, Mr. Chairman, and really thank you very much for having this hearing. As many have mentioned, this is a very important issue for all of us here and definitely for our constituents back at home.    I looked at the request from the President in the form of this joint resolution, and under section (c) limitations it says the authority of the grant does not authorize the use of the United States Armed Forces in, ``enduring offensive ground combat operations.''    So my question to you on the panel is, what does that mean? Does it actually refer to the length of time during which the operations will be ongoing for 3 years? What is the scope of the operation, from your perspective? And is it, in fact, some undefined relationship between time and scope?</t>
   </si>
   <si>
@@ -277,6 +355,12 @@
     <t>412417</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman.    Gentlemen, thank you for being here.    And the authorization that the President submitted to Congress lists one terrorist group in two countries. I have got a Defense Intelligence Agency report right here that is unclassified that says that we are chasing 41 terrorist groups in 24 countries. And I think that one of my concerns, or I know one of my concerns, and I think other people's concerns, with the way the authorization is drafted is, what if they simply change their name or what if they simply cross borders into another country?    The other thing that I would point out is that the President had the authority several months ago, when we first saw the ISIL convoys, to take action at that stage and he chose not to, and I think that one of the reasons that we are in the situation we are today is because they were indecisive at that point, and quite honestly, it is almost like they let them kill enough people that now all of a sudden they have to do something about it.    I want to go back to 2011 for a second. The decision was made to take Gaddafi out, yet the United States did not secure the weapons in Libya. I would like to know what do you think happened to the weapons in Libya when Gaddafi was removed, since we did not go into the country and secure them?    The other thing I would suggest is that the U.S., through the State Department, for years has been undermining Assad and the central government of Syria. That, to me, seems to have been one of the things that has allowed these terrorist groups to grow.    And then finally, I would like--and, General, this may be more of a question for you because of your military experience, what does the hold force look like? I have no idea that we can move these terrorists out of any territory that we choose to move them out of, but what does the hold force look like to hold that territory? Because if we can't hold it this time, we are simply going to be right back in there again.    General Keane. Okay. Well, that is a mouthful. Let me try to get to you with some of it and hopefully leave some time for others. But, you know, in terms of the enemy itself, I think saying ``ISIS'' and also putting the word ``associates'' in there clearly sends a message that this is--ISIS, as I tried to show you on ISW's map, clearly has intent and is moving outside of ISIS, the Islamic State of Iraq and al-Sham, which is essentially the Levant. And you would not want to restrict the President geographically or in terms of what this enemy calls itself and who it is affiliated with.    It doesn't mean that on that map that is in front of you that we would obviously be dealing with ISIS in all of those countries. I think we would have to give the President a lot more credit than that. But the fact of the matter is, if we wanted to conduct a counterterrorism operation against ISIS in Libya because al-Sisi asked us to do that, and we want to do it together, and we have got good reason to do it, that may be something the President would want to consider and we would want him to have the flexibility to do that.</t>
   </si>
   <si>
@@ -295,6 +379,12 @@
     <t>412532</t>
   </si>
   <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Mr. Chairman.    Thank you, gentlemen, for being here today.    There are so many different points and angles, and difficult to address them quickly in less than 5 minutes, but I want to touch on the point that many have made about the need to address and come up with an effective strategy to defeat this threat not only militarily but simultaneously ideologically; that, as you said, General Keane, as we saw with Al Qaeda, because this was never addressed up front we find ourselves in the situation that we are in today.    So my question is about how we deal with this issue within the construct. Each of you believe that there should be an AUMF passed to deal with this, and how that issue of ideology is addressed within this document.    And secondly, as we talk about what is coming in Mosul but also generally, as we look at the military strategy to defeat this enemy, why it is so important to address the ideology is, for example, if we had a primarily U.S.-led ground force it would play directly into the ideology and major recruiting propaganda that groups like ISIS are using, that this is a war between the West and Muslims, as opposed to supporting what President al-Sisi is calling for, this Arab regional ground force.    So specifically with the AUMF, I am wondering if you can address that question with regards to the fact that this must have a military and ideology component to the strategy.    We can start with General Keane.    General Keane. Well, you know I have very strong feelings about the fact that we have to recognize it for what it is. What we have failed to do is name the movement properly, then we don't define it, and we certainly have done a terrible job in explaining its ideology.    And by putting a magnifying glass on that ideology and then having the moderate and the traditionalist Muslims explain why the Islam that they are following is powerful and why 95, 97 percent of the Muslims in the world are following it, and why that should shape and define people's lives and why this other following is absolutely antithetical to it, that has to take place. And I would suggest that we are not the best to do that. This is about Muslims doing this, educating not only Muslims about it, but educating the rest of us about this.    And I do think the United States can play a leadership role here in terms of encouraging this and getting the majority of the Muslims, and there are many of them that speak out, but getting their clerical leaders to really speak out in a theological way to deal with this issue.    Certainly the military component here is what is right in front of us. We have a marauding enemy that is killing people every single day; most of it is not being exposed on the Internet.    And this kind of brutality and barbarism has to be stopped. The only way you can stop that killing is you have to kill the people who are doing it and--or you have to capture them.    All that said, we don't want to fight another movement like this 5 years from now or 8 years from now, and that is what brings in your comment about the ideology and countering that entire narrative. We need a longer-term issue to get at that.    And yes, there are conditions in this region that helped to grow some of this movement. Political reform, social justice, and some of the economic repression in the region are conditions that contribute to it. They are not necessarily central to it, but they are there contributing it and we have to have those kind of sensible dialogues with our friends in the region who, in fact, contribute to some of these problems.</t>
   </si>
   <si>
@@ -310,6 +400,12 @@
     <t>412395</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brooks. Thank you, Mr. Chairman.    During my time I would like to emphasize the very broad nature and scope of the war resolution that we are being asked to support. In particular, and this has been mentioned by some of the other Congressmen and by the witnesses, there are no geographic limitations. And as I understand it from the information I have, you can make the case that the Islamic State is active of course in Iraq and Syria, but also Jordan, Libya, Egypt, Algeria, Tunisia, Yemen, Saudi Arabia, and other nations.    Under the war resolution that we are being asked to support, in section 2 it states, ``The President is authorized to use the armed forces of the United States as the President determines to be necessary and appropriate against ISIL or associated persons or forces as defined in section 5.''    You go down to section 5: The term ``associated persons or forces'' means individuals and organizations fighting for, on behalf of, or alongside ISIL, which is, as we know, covering virtually every continent on Earth, with the possible exception of Antarctica, and many of the countries that are on each of those continents, because the Islamic State has done a fairly good job of recruiting its people from all corners of the globe.    In that vein, then, I want to emphasize a couple of questions but ask you to ask one of them.    First, how is America going to pay for it? This is an extraordinary cost, and we have had witnesses where you are sitting now who have already said that the greatest national security threat that the United States of America faces is our deficit and accumulated debt that ultimately has the potential of exposing us to a devastating insolvency and bankruptcy, which would eliminate our ability to have a national defense. Those words, in effect, came from Admiral Mike Mullen when he was Chairman of the Joint Chiefs of Staff.    Second, how does diversion of defense money to this effort to fight the Islamic State undermine our defense capabilities and the rest of the needs for America's national security?    The question I want you to answer, though, is, if Congress adopts this war resolution or a similar one, how does that action affect the willingness of the rest of the world, and Europe in particular--Germany, France, United Kingdom, Italy, and the like--to shoulder more of the burden, to spend their treasury, to risk the lives of their young men and women now that they know that the United States of America is once again willing to pay the price for the world's security? So if we pass this war resolution, how does that impact the willingness of other nations that are at risk to spend their money and risk their young men and women?</t>
   </si>
   <si>
@@ -331,6 +427,12 @@
     <t>412632</t>
   </si>
   <si>
+    <t>Moulton</t>
+  </si>
+  <si>
+    <t>Seth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Moulton. Thank you, Mr. Chairman.    And, gentlemen, thank you very much for joining us here this morning.    General Keane, I want to specifically thank you, because I was an infantry officer in the surge, I am greatly appreciative of what you did to help turn that war around.    I respectfully disagree with an earlier statement one of my colleagues made that the most important thing for the troops on the ground is to know that all of America is behind them. I knew that all of America wasn't supportive of what I was doing in Iraq, but you, with the help of General Petraeus and others, gave us some hope, some faith that we had a plan, that our effort, our sacrifice, our loss would not be in vain.    And so I, among many others, come back to this fundamental issue that we don't seem to have a strategy here.    I just returned from a CODEL [congressional delegation] to Iraq and Afghanistan and received countless briefs on a three-phased plan. And we all know that phase four was what was missing back in 2003, and it seems like it is missing again here.    I have not seen a good plan to deal with the Sunni tribes, to deal with the Shiite militias, and that is just in Iraq. I agree with your assessment that we don't seem to have much of any plan at all for Syria.    So my question is, how do we, how do you try to influence this debate to actually get a strategy? Somehow you were able to take a failing war in Iraq and help turn it around by bringing a workable strategy into the discussion and then eventually getting it enacted. If you could comment on that, maybe we could see a path forward.    General Keane. Well, thank you, and appreciate your service, as well. Semper Fi.</t>
   </si>
   <si>
@@ -349,6 +451,12 @@
     <t>412453</t>
   </si>
   <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gibson. Thanks, Mr. Chairman.    I appreciate the panelists and want to begin just by associating myself with the remarks that General Keane made earlier today with regard to calling things for what they are: Islamic extremists. And I have been saying this for some time.    First of all, it is the reality. The second point is is that it really then lays bare what our enemy is trying to do. This extremist group, this Islamic extremist group, is trying to deceive the Muslim world that somehow they are advancing their cause. This is how they are trying to recruit and fundraise.    So when we label it as it is we lessen their ability, especially now, when you see Muslim nations and people standing up to this Islamic extremism in Iraq, Kurds, and then Jordan and Egypt, when we are supporting them we lessen our enemies' ability to recruit and fundraise, and that is the key point here. We can militarily engage at this moment, and, you know, for every one that we kill we end up, you know, dealing with issues of multipliers in terms of recruiting and fundraising; why it is so important to have clarity.    So I just want to associate myself with those remarks.    My question for the panel has to do with, and by the way, I want to thank General Keane. He has always been a source of inspiration and great mentorship to many of those in uniform.    My question is on Syria. Last fall I was not able to vote for arming the so-called Syrian--moderate Syrian army. I gave it a fair hearing. I looked at all briefings and looked at the briefing papers, and at the end of the day I believe that that force was militarily incompetent, politically untrustworthy, and it was going to fail.    So that put me in a--I mean, ethically, morally I felt in a tough spot because I knew that this is an enemy that can't be deterred; they have to be defeated. Question is, how? And we were proposing a strategy that was, in my view, going to fail. And now we are seeing the problems of it.    You know, how do we get anything done of significance in Syria without a political foundation? In Iraq you could argue about the efficacy of that foundation, but you have Iraq, the Kurds, you have a foundation from which to support taking certain action.    In Syria we have really no foundation, so what is the way forward there, from anyone in the panel? Very interested to hear.    General Keane. Well, I will take a stab at it. I mean, Syria is really a tough problem, and there are very good arguments on both sides, on many sides of this issue because it is so challenging. I just want to provide you a couple of data points.    Remember back when the--this was part of the Arab Spring, the people stood up against Assad and, because he was so violently--he used violence to push that--the people back, many of his officers and his troops that--underneath him joined the opposition forces because he was killing his own people in the streets, unlike what took place in Egypt. As a result of that, that opposition force gained momentum and they were--people in this town were predicting it was just a matter of time before Assad falls. Remember that?    And what happened is the Iranians came in, propped up the regime, so did the Russians, and then the Free Syrian Army asked for our help. And this goes back in the 2011 timeframe.    In 2012 ISIS moves into Syria, and would things have been different if we had helped the Free Syrian Army then to maintain that momentum against the regime? I think so; I don't know for sure. But I think we made a huge policy mistake.    And then in 2012 Clinton, Petraeus, Panetta, and Dempsey advocate the same thing as a matter of policy--not just the Free Syrian Army asking; now they are advocating it, and we say no again.    In 2012 the radical Islamists are in Syria, and they are growing in size and scale and adding to the complications of this problem. What they do--they didn't start the Arab Spring but they have always seen it as opportunity, when you have political and social upheaval like this and chaos, they want to take advantage of that because they want to have a seat at the table at the end of it.    That is what we are facing. So it adds to the complications that we have in Syria.    When I put my head on that and try to work out an answer to what needs to be done, I do believe we need to get a political solution in Syria. But how do you get it when Assad has the momentum? You are not going to get it, and the Iranians and the Russians are not going to permit it.    The only thing you can do is change that momentum, and that begins with military, to change the momentum he has. Shut down his air power by the use of no-fly zones and buffer zones. Would he contest that? Unlikely, because we would then destroy his air power.    That begins to change the political situation, because now he is no longer dominating. And it puts pressure on people around him to look for a solution that is beyond Assad.    That, I think, is the general thought process, that you have to get past Assad and you have to see a political solution there--not necessarily the removal of this entire regime, but the removal of Assad, and to some kind of accommodation with its own people--not the radicals, but with its own people that are fighting them. I don't think you can get there unless you took some kind of military action to balance the military situation.    Then you can put together--then I think our friends in the region--I can't say and guarantee you this would happen, but they are all urging us to do what I just said. Then I think you get the makings of an Arab-Turkish coalition, which the United States would participate in, to drive and defeat ISIS in Syria.    Those are kind of the steps, I think, that should be undertaken. But we have no plan to do any of that.</t>
   </si>
   <si>
@@ -358,6 +466,12 @@
     <t>412615</t>
   </si>
   <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, Mr. Chairman.    Thank you, gentlemen, for joining us.    Mr. Chesney and Mr. Wittes--I am sorry, can you say it one more time?    Wittes. Okay. I was close.    Mr. Chesney and Mr. Wittes, you mentioned during your opening comments the silence that the AUMF has on detention protocols.    So, Mr. Wittes, if you could start, how would the alternative AUMF draft that you created treat detention protocols moving forward, in addition to the current detainees held under the 2001 AUMF?</t>
   </si>
   <si>
@@ -385,6 +499,12 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Langevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    And I too want to thank our witnesses for your testimony today. Your insights have been invaluable and I think this is a very important discussion. I think there is certainly no greater responsibility that any of us have here on this committee or in government when the decisions come up as to when or whether or not to send our men and women in uniform into harm's way and to get it right when we do.    You all have made clear very important points about why an AUMF is important, again, sending the signals to our allies and our enemies as well as our troops that the law-making branch of government, were going to stand behind their efforts to defeat     I want to give each of you an opportunity, and this has been a pretty thorough discussion already, but give you an additional opportunity to talk about and point out the important points that should be left in an AUMF, which--in this as it is drafted, and which should be removed and within the time that we have, and if you can't get to everything, perhaps additional points in writing, if you would.    Some of the first points that we need to see in the theater right now to signal that there has been a turn. Clearly nature hates a vacuum, and there is a vacuum right now there that ISIL is filling, and there is also the saying that, you know, if they are strong they have to be with you, and I think that is why you are seeing this growing support of ISIL, because they are strong and getting stronger right now.    What would indicate an initial tactical success within the theater of conflict that would show that the tide has turned--is turning that would hopefully lead and then indicate that we are on the road to achieving strategic success?    And then finally, if you could, long term, how do we defeat this radical, violent ideology? Because in many ways this is an ideological war as well as a violent military one.    So I understand I have asked a lot there, and if you can't get to everything I understand, but perhaps some additional thoughts in writing would be helpful, too.    General, should we start with you?    General Keane. Okay. Thank you.    Well, certainly in terms of some near-term tactical success that would indicate that we are beginning to turn the tide against ISIS is to capitalize on what we have already achieved in Iraq. We have stalled their offensive in Iraq largely through the use of air power. We have retaken some territory, some modest territory back in Baiji and also up in Sinjar in the north.    But what is coming next, and I think you are very much aware of is largely a counteroffensive military campaign to retake the major environs of Mosul, Tikrit, Fallujah, and part of Anbar Province, essentially fighting up the Tigris and Euphrates River Valleys is what we are really talking about here.    And that counteroffensive will be a major campaign and, if successful, clearly that will demonstrate that the tide has truly turned against ISIS. They will have to flee into Syria, which is their de facto capital now. It is where they maintain many of their--much of their resources. It is where their recruiting and training is taking place. And it will be a--continue to be something of a safe haven to them because there is--at least in the near term there is no ground force to act against them, although we will try to find--continue to find targets against them.    But that will send a huge message in terms of initial tactical success against ISIS. And I think it would have some impact, don't know for certain, but my judgment tells me it would begin to have some impact on whether people want to join this organization or not when they see it largely beginning to be destroyed right before their eyes.    So I think that is very important to us. And as we have said many times here, and I think everybody sitting at the table here is in agreement, that is an immediate military strategy, but we need a longer-term strategy that deals with the ideology or we will be dealing with ISIS-like enemies again. And that truly should be avoided.    We have an incredible lexicon of learning experience here after--you know, it will be 14 years this September of dealing with this radical Islamic issue and we still, still, as we sit here now, do not have a comprehensive strategy to deal with it.    Undermining their ideology in a global alliance is what I suggested, and I think that is largely dealing with the people in the region who have to do this because the ideology is tied to the Islamic religion. But it also, from a practical sense, an alliance like that would share intelligence, it would share training, it would share technology so that people in it are all benefitting from it.    And I don't think we would craft that strategy. I think we would bring that alliance together and the alliance would craft it. And the input we would get from the participating nations who are dealing with this would be very significant, in my judgment, in terms of how to approach it and what practical means are there to do it.    And I will stop right there so others have an opportunity to talk.</t>
   </si>
   <si>
@@ -392,6 +512,12 @@
   </si>
   <si>
     <t>412642</t>
+  </si>
+  <si>
+    <t>Ashford</t>
+  </si>
+  <si>
+    <t>Brad</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ashford. Thank you. And I appreciate the opportunity to be the last questioner. But I thank you, Mr. Chairman.    I want to just make a few points. I also was in Afghanistan and Iraq with Congressman Moulton and Congresswoman Stefanik and Congressman Wilson. It was an extremely important trip. We went everywhere, pretty much, and these answers have been right in line with the thinking at least I come back with.    And it was very important to have Congressman Moulton there because of his work with General Petraeus. He was able to really zero in and--laser-like on the questions that--many of which have been asked today.    Let me just say, I absolutely agree with the panel, General Keane for sure, and that is that the number one goal here is to destroy ISIS and that we need to refresh, rewrite, do again, whatever it is, the resolution that is there.    We had several conversations--I did and I know Congressman Moulton did and others--with members of the military and leaders--King Abdullah and the prime minister in Iraq and so forth. And everyone said the same thing: We need to have a clear resolve.    I was on a C-130 and the navigator said, ``Congressman, do you think you can get a resolution?'' You know, and I said, ``Well, we will see if we can,'' but, I mean, it is clearly the case.    I have been struggling with, and I also would just say this: I absolutely reject the idea that somehow these Muslim Arab countries cannot, with our help, be successful. I think that is just not correct.    I know you are saying the opposite, but I, you know, hear that, and that it--and that we are an exceptional nation and that we are going to have to maybe play a role that maybe somewhat outweigh those of others. And also that the ideological work, which clearly every leader we talk to--King Abdullah was emphatic about the need to address, you know, sectarian education, to deal with economic development. And he did talk about a Syrian strategy, and it is a little more long-term.    Let me just ask this. I know in Nebraska, you know, what I get asked is, you know, ``Are we going to need boots on the ground,'' and I know you have answered this. My sense is that we haven't defined that yet, we don't know exactly what the assistance is going to be. We are in an assist role at the brigade level now and we have--intelligence support as well as our Air Force and Navy pilots, whatever.    I think you are right. I think we have to have a broader resolution, but boots on the ground does not necessarily mean a brigade, but if there is something going on in the field where Americans need to, I am sorry for the long question, need to get involved, that would--that is also boots on the ground, technically. They are on the ground.    So, General, could you--if you would?    General Keane. Well, let me just--well, first of all, I appreciate your comments and you going to the region like that. It is insightful listening to you.    We do create a false narrative here, and it is this, and rightfully so. We don't want to be involved in a protracted war like Iraq or Afghanistan, certainly. We all understand that. But also, nobody is talking about that here either.    So we get a choice between--we don't want to have boots on the ground that will lead us to a protracted war where hundreds of thousands of U.S. troops are involved. I don't know anybody that is making such a proposal or recommendation. Certainly nobody in the Pentagon, to be sure.    And I don't know anyone who is opposed to the President's strategy is suggesting such a thing either. But we are suggesting what is reasonable. And it is reasonable that the coalition lead and we help.    So we do need some boots on the ground to make them more effective, and I think that is reasonable. So what are we really arguing over here? We are arguing over scale.    The present policy is nothing below brigade level. I am saying you got to get down to battalion level where the fighting is going on. And maybe we will eventually get there because as we begin to do this General Austin and his team will want the same thing. And then we need Apache helicopters, and AC-130 gunships, and et cetera, et cetera.    This is modest improvement, in my judgment, that gets you an exponential better result.    Now, let me throw something out that maybe you would disagree with. If this offensive fails, we try it and it fails, do we wring our hands and say, ``Okay, we are going to come back next year with the same force, with more boots on the ground, better-trained force and we will give it a try in 2016,'' or, if this is truly in our national interest, maybe a reasonable alternative is to have an Arab coalition force that the United States is part of form in Kuwait and we put that force on the ground, which would mean some brigade combat teams to do that.    Is that something we should do now? Absolutely not. We want the burden to be borne by the Iraqis.    But if it is failure and we can't seem to get there, should that be an alternative that we should at least consider? I think it is.</t>
@@ -752,7 +878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,7 +886,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,2381 +908,2809 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
       <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
       <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
       <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
       <c r="H27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
       <c r="H28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
       <c r="H29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
       <c r="H30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
       <c r="H31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
       <c r="H33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G35" t="s">
+        <v>62</v>
+      </c>
       <c r="H35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
       <c r="H37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
       <c r="H39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
       <c r="H41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G42" t="s">
+        <v>76</v>
+      </c>
       <c r="H42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G44" t="s">
+        <v>76</v>
+      </c>
       <c r="H44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G46" t="s">
+        <v>76</v>
+      </c>
       <c r="H46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G49" t="s">
+        <v>87</v>
+      </c>
       <c r="H49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G50" t="s">
+        <v>87</v>
+      </c>
       <c r="H50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G51" t="s">
+        <v>92</v>
+      </c>
       <c r="H51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G52" t="s">
+        <v>92</v>
+      </c>
       <c r="H52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G53" t="s">
+        <v>92</v>
+      </c>
       <c r="H53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>70</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G54" t="s">
+        <v>92</v>
+      </c>
       <c r="H54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G55" t="s">
+        <v>99</v>
+      </c>
       <c r="H55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G56" t="s">
+        <v>99</v>
+      </c>
       <c r="H56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G57" t="s">
+        <v>99</v>
+      </c>
       <c r="H57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>104</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>104</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>104</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G65" t="s">
+        <v>113</v>
+      </c>
       <c r="H65" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G66" t="s">
+        <v>113</v>
+      </c>
       <c r="H66" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I66" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G67" t="s">
+        <v>113</v>
+      </c>
       <c r="H67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G68" t="s">
+        <v>113</v>
+      </c>
       <c r="H68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G69" t="s">
+        <v>113</v>
+      </c>
       <c r="H69" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>92</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G70" t="s">
+        <v>121</v>
+      </c>
       <c r="H70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>92</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G71" t="s">
+        <v>121</v>
+      </c>
       <c r="H71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I71" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>92</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G73" t="s">
+        <v>121</v>
+      </c>
       <c r="H73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>97</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G74" t="s">
+        <v>128</v>
+      </c>
       <c r="H74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>97</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G76" t="s">
+        <v>128</v>
+      </c>
       <c r="H76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I76" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>97</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G77" t="s">
+        <v>128</v>
+      </c>
       <c r="H77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I77" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>97</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G78" t="s">
+        <v>128</v>
+      </c>
       <c r="H78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>97</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G79" t="s">
+        <v>128</v>
+      </c>
       <c r="H79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I79" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>104</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G80" t="s">
+        <v>137</v>
+      </c>
       <c r="H80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I80" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>104</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G81" t="s">
+        <v>137</v>
+      </c>
       <c r="H81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I81" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>104</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G82" t="s">
+        <v>137</v>
+      </c>
       <c r="H82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>104</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G84" t="s">
+        <v>137</v>
+      </c>
       <c r="H84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I84" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>110</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G85" t="s">
+        <v>145</v>
+      </c>
       <c r="H85" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I85" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>110</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G86" t="s">
+        <v>145</v>
+      </c>
       <c r="H86" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I86" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>113</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G87" t="s">
+        <v>150</v>
+      </c>
       <c r="H87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I87" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>113</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G89" t="s">
+        <v>150</v>
+      </c>
       <c r="H89" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I89" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>113</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G91" t="s">
+        <v>150</v>
+      </c>
       <c r="H91" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I91" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>113</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G94" t="s">
+        <v>150</v>
+      </c>
       <c r="H94" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I94" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>122</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>160</v>
+      </c>
+      <c r="G95" t="s">
+        <v>161</v>
+      </c>
       <c r="H95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>162</v>
+      </c>
+      <c r="I95" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>122</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>160</v>
+      </c>
+      <c r="G96" t="s">
+        <v>161</v>
+      </c>
       <c r="H96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>162</v>
+      </c>
+      <c r="I96" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>125</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G97" t="s">
+        <v>166</v>
+      </c>
       <c r="H97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I97" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>125</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G98" t="s">
+        <v>166</v>
+      </c>
       <c r="H98" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I98" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>129</v>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94100.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400379</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
   </si>
   <si>
     <t>400209</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Jones</t>
@@ -878,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -886,7 +895,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,2806 +920,3036 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
       </c>
       <c r="I14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="H31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="H33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I33" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G35" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="H35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G37" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="H37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G39" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="H42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="H44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="H46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
-        <v>83</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>86</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>83</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="H49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="H50" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G51" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="H51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I51" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G52" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="H52" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G53" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="H53" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I53" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G54" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="H54" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G55" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H55" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I55" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G56" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H56" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I56" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G57" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H57" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I57" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>104</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>107</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>104</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>104</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>107</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>104</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>107</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G65" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="H65" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G66" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="H66" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I66" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G67" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="H67" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I67" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G68" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="H68" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I68" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G69" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="H69" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>117</v>
+      </c>
+      <c r="J69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G70" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="H70" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G71" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="H71" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I71" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J71" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G73" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="H73" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I73" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J73" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G74" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="H74" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I74" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J74" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G76" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="H76" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I76" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G77" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="H77" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I77" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G78" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="H78" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J78" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G79" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="H79" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G80" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="H80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I80" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J80" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G81" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="H81" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I81" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J81" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G82" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="H82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I82" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G84" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="H84" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I84" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J84" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G85" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="H85" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I85" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>149</v>
+      </c>
+      <c r="J85" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G86" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="H86" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I86" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>149</v>
+      </c>
+      <c r="J86" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G87" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="H87" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I87" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J87" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G89" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="H89" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I89" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G91" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="H91" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I91" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J91" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G94" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="H94" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I94" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J94" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G95" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="H95" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I95" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J95" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G96" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="H96" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I96" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J96" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G97" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="H97" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I97" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J97" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G98" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="H98" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I98" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J98" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s">
-        <v>17</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>171</v>
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
